--- a/docs/filmbox_export_videos.xlsx
+++ b/docs/filmbox_export_videos.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onurovali/Documents/Code/mypy/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99DB3B-CD61-E348-8C55-F474584E33EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet  1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet  1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7394" uniqueCount="4882">
   <si>
     <t>Identifier*</t>
   </si>
@@ -14683,14 +14697,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -14701,28 +14710,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -15012,19 +15031,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15079,7 +15110,7 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" t="s">
@@ -15164,7 +15195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -15195,11 +15226,11 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="S2">
-        <v>6.0</v>
+      <c r="S2" s="1">
+        <v>6.3</v>
       </c>
       <c r="T2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U2" t="s">
         <v>54</v>
@@ -15241,7 +15272,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -15272,11 +15303,11 @@
       <c r="O3" t="s">
         <v>72</v>
       </c>
-      <c r="S3">
-        <v>6.0</v>
+      <c r="S3" s="1">
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
         <v>73</v>
@@ -15318,7 +15349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -15349,11 +15380,11 @@
       <c r="O4" t="s">
         <v>88</v>
       </c>
-      <c r="S4">
-        <v>6.0</v>
+      <c r="S4" s="1">
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U4" t="s">
         <v>89</v>
@@ -15395,7 +15426,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -15426,11 +15457,11 @@
       <c r="O5" t="s">
         <v>105</v>
       </c>
-      <c r="S5">
-        <v>6.0</v>
+      <c r="S5" s="1">
+        <v>6</v>
       </c>
       <c r="T5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U5" t="s">
         <v>106</v>
@@ -15472,7 +15503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -15503,11 +15534,11 @@
       <c r="O6" t="s">
         <v>122</v>
       </c>
-      <c r="S6">
-        <v>6.0</v>
+      <c r="S6" s="1">
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>123</v>
@@ -15558,7 +15589,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -15589,11 +15620,11 @@
       <c r="O7" t="s">
         <v>141</v>
       </c>
-      <c r="S7">
-        <v>6.0</v>
+      <c r="S7" s="1">
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
         <v>142</v>
@@ -15635,7 +15666,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -15666,11 +15697,11 @@
       <c r="O8" t="s">
         <v>157</v>
       </c>
-      <c r="S8">
-        <v>6.0</v>
+      <c r="S8" s="1">
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
         <v>158</v>
@@ -15712,7 +15743,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -15743,11 +15774,11 @@
       <c r="O9" t="s">
         <v>173</v>
       </c>
-      <c r="S9">
-        <v>6.0</v>
+      <c r="S9" s="1">
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
         <v>54</v>
@@ -15789,7 +15820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -15820,11 +15851,11 @@
       <c r="O10" t="s">
         <v>187</v>
       </c>
-      <c r="S10">
-        <v>6.0</v>
+      <c r="S10" s="1">
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U10" t="s">
         <v>188</v>
@@ -15866,7 +15897,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -15897,11 +15928,11 @@
       <c r="O11" t="s">
         <v>187</v>
       </c>
-      <c r="S11">
-        <v>6.0</v>
+      <c r="S11" s="1">
+        <v>6</v>
       </c>
       <c r="T11">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U11" t="s">
         <v>202</v>
@@ -15943,7 +15974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -15974,11 +16005,11 @@
       <c r="O12" t="s">
         <v>216</v>
       </c>
-      <c r="S12">
-        <v>6.0</v>
+      <c r="S12" s="1">
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U12" t="s">
         <v>217</v>
@@ -16020,7 +16051,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -16051,11 +16082,11 @@
       <c r="O13" t="s">
         <v>233</v>
       </c>
-      <c r="S13">
-        <v>6.0</v>
+      <c r="S13" s="1">
+        <v>6</v>
       </c>
       <c r="T13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U13" t="s">
         <v>234</v>
@@ -16097,7 +16128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -16128,11 +16159,11 @@
       <c r="O14" t="s">
         <v>249</v>
       </c>
-      <c r="S14">
-        <v>6.0</v>
+      <c r="S14" s="1">
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U14" t="s">
         <v>142</v>
@@ -16174,7 +16205,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -16205,11 +16236,11 @@
       <c r="O15" t="s">
         <v>266</v>
       </c>
-      <c r="S15">
-        <v>10.0</v>
+      <c r="S15" s="1">
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U15" t="s">
         <v>54</v>
@@ -16251,7 +16282,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>277</v>
       </c>
@@ -16282,11 +16313,11 @@
       <c r="O16" t="s">
         <v>282</v>
       </c>
-      <c r="S16">
-        <v>10.0</v>
+      <c r="S16" s="1">
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U16" t="s">
         <v>283</v>
@@ -16337,7 +16368,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -16368,11 +16399,11 @@
       <c r="O17" t="s">
         <v>301</v>
       </c>
-      <c r="S17">
-        <v>10.0</v>
+      <c r="S17" s="1">
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U17" t="s">
         <v>302</v>
@@ -16423,7 +16454,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>315</v>
       </c>
@@ -16454,11 +16485,11 @@
       <c r="O18" t="s">
         <v>322</v>
       </c>
-      <c r="S18">
-        <v>6.0</v>
+      <c r="S18" s="1">
+        <v>6</v>
       </c>
       <c r="T18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U18" t="s">
         <v>323</v>
@@ -16500,7 +16531,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -16531,11 +16562,11 @@
       <c r="O19" t="s">
         <v>339</v>
       </c>
-      <c r="S19">
-        <v>6.0</v>
+      <c r="S19" s="1">
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U19" t="s">
         <v>340</v>
@@ -16586,7 +16617,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>353</v>
       </c>
@@ -16617,11 +16648,11 @@
       <c r="O20" t="s">
         <v>359</v>
       </c>
-      <c r="S20">
-        <v>6.0</v>
+      <c r="S20" s="1">
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U20" t="s">
         <v>360</v>
@@ -16663,7 +16694,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>370</v>
       </c>
@@ -16694,11 +16725,11 @@
       <c r="O21" t="s">
         <v>376</v>
       </c>
-      <c r="S21">
-        <v>6.0</v>
+      <c r="S21" s="1">
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U21" t="s">
         <v>54</v>
@@ -16740,7 +16771,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>386</v>
       </c>
@@ -16771,11 +16802,11 @@
       <c r="O22" t="s">
         <v>392</v>
       </c>
-      <c r="S22">
-        <v>6.0</v>
+      <c r="S22" s="1">
+        <v>6</v>
       </c>
       <c r="T22">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U22" t="s">
         <v>393</v>
@@ -16817,7 +16848,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>403</v>
       </c>
@@ -16848,11 +16879,11 @@
       <c r="O23" t="s">
         <v>408</v>
       </c>
-      <c r="S23">
-        <v>6.0</v>
+      <c r="S23" s="1">
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
         <v>54</v>
@@ -16894,7 +16925,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>417</v>
       </c>
@@ -16925,11 +16956,11 @@
       <c r="O24" t="s">
         <v>422</v>
       </c>
-      <c r="S24">
-        <v>6.0</v>
+      <c r="S24" s="1">
+        <v>6</v>
       </c>
       <c r="T24">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U24" t="s">
         <v>423</v>
@@ -16971,7 +17002,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -17002,11 +17033,11 @@
       <c r="O25" t="s">
         <v>437</v>
       </c>
-      <c r="S25">
-        <v>6.0</v>
+      <c r="S25" s="1">
+        <v>6</v>
       </c>
       <c r="T25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U25" t="s">
         <v>438</v>
@@ -17048,7 +17079,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>448</v>
       </c>
@@ -17079,11 +17110,11 @@
       <c r="O26" t="s">
         <v>454</v>
       </c>
-      <c r="S26">
-        <v>6.0</v>
+      <c r="S26" s="1">
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U26" t="s">
         <v>455</v>
@@ -17125,7 +17156,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>465</v>
       </c>
@@ -17156,11 +17187,11 @@
       <c r="O27" t="s">
         <v>471</v>
       </c>
-      <c r="S27">
-        <v>6.0</v>
+      <c r="S27" s="1">
+        <v>6</v>
       </c>
       <c r="T27">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U27" t="s">
         <v>54</v>
@@ -17202,7 +17233,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>480</v>
       </c>
@@ -17233,11 +17264,11 @@
       <c r="O28" t="s">
         <v>485</v>
       </c>
-      <c r="S28">
-        <v>6.0</v>
+      <c r="S28" s="1">
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U28" t="s">
         <v>54</v>
@@ -17279,7 +17310,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -17310,11 +17341,11 @@
       <c r="O29" t="s">
         <v>500</v>
       </c>
-      <c r="S29">
-        <v>6.0</v>
+      <c r="S29" s="1">
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U29" t="s">
         <v>54</v>
@@ -17356,7 +17387,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>509</v>
       </c>
@@ -17387,11 +17418,11 @@
       <c r="O30" t="s">
         <v>514</v>
       </c>
-      <c r="S30">
-        <v>6.0</v>
+      <c r="S30" s="1">
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U30" t="s">
         <v>54</v>
@@ -17433,7 +17464,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>523</v>
       </c>
@@ -17464,11 +17495,11 @@
       <c r="O31" t="s">
         <v>528</v>
       </c>
-      <c r="S31">
-        <v>6.0</v>
+      <c r="S31" s="1">
+        <v>6</v>
       </c>
       <c r="T31">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U31" t="s">
         <v>529</v>
@@ -17510,7 +17541,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>538</v>
       </c>
@@ -17541,11 +17572,11 @@
       <c r="O32" t="s">
         <v>322</v>
       </c>
-      <c r="S32">
-        <v>6.0</v>
+      <c r="S32" s="1">
+        <v>6</v>
       </c>
       <c r="T32">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U32" t="s">
         <v>323</v>
@@ -17587,7 +17618,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>546</v>
       </c>
@@ -17618,11 +17649,11 @@
       <c r="O33" t="s">
         <v>339</v>
       </c>
-      <c r="S33">
-        <v>6.0</v>
+      <c r="S33" s="1">
+        <v>6</v>
       </c>
       <c r="T33">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U33" t="s">
         <v>340</v>
@@ -17673,7 +17704,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>556</v>
       </c>
@@ -17704,11 +17735,11 @@
       <c r="O34" t="s">
         <v>359</v>
       </c>
-      <c r="S34">
-        <v>6.0</v>
+      <c r="S34" s="1">
+        <v>6</v>
       </c>
       <c r="T34">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
         <v>360</v>
@@ -17750,7 +17781,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>563</v>
       </c>
@@ -17781,11 +17812,11 @@
       <c r="O35" t="s">
         <v>376</v>
       </c>
-      <c r="S35">
-        <v>6.0</v>
+      <c r="S35" s="1">
+        <v>6</v>
       </c>
       <c r="T35">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U35" t="s">
         <v>54</v>
@@ -17827,7 +17858,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>570</v>
       </c>
@@ -17858,11 +17889,11 @@
       <c r="O36" t="s">
         <v>392</v>
       </c>
-      <c r="S36">
-        <v>6.0</v>
+      <c r="S36" s="1">
+        <v>6</v>
       </c>
       <c r="T36">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U36" t="s">
         <v>393</v>
@@ -17904,7 +17935,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>577</v>
       </c>
@@ -17935,11 +17966,11 @@
       <c r="O37" t="s">
         <v>408</v>
       </c>
-      <c r="S37">
-        <v>6.0</v>
+      <c r="S37" s="1">
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U37" t="s">
         <v>54</v>
@@ -17981,7 +18012,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>584</v>
       </c>
@@ -18012,11 +18043,11 @@
       <c r="O38" t="s">
         <v>422</v>
       </c>
-      <c r="S38">
-        <v>6.0</v>
+      <c r="S38" s="1">
+        <v>6</v>
       </c>
       <c r="T38">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U38" t="s">
         <v>423</v>
@@ -18058,7 +18089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>591</v>
       </c>
@@ -18089,11 +18120,11 @@
       <c r="O39" t="s">
         <v>437</v>
       </c>
-      <c r="S39">
-        <v>6.0</v>
+      <c r="S39" s="1">
+        <v>6</v>
       </c>
       <c r="T39">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U39" t="s">
         <v>438</v>
@@ -18135,7 +18166,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>598</v>
       </c>
@@ -18166,11 +18197,11 @@
       <c r="O40" t="s">
         <v>454</v>
       </c>
-      <c r="S40">
-        <v>6.0</v>
+      <c r="S40" s="1">
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U40" t="s">
         <v>455</v>
@@ -18212,7 +18243,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>605</v>
       </c>
@@ -18243,11 +18274,11 @@
       <c r="O41" t="s">
         <v>471</v>
       </c>
-      <c r="S41">
-        <v>6.0</v>
+      <c r="S41" s="1">
+        <v>6</v>
       </c>
       <c r="T41">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U41" t="s">
         <v>54</v>
@@ -18289,7 +18320,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>612</v>
       </c>
@@ -18320,11 +18351,11 @@
       <c r="O42" t="s">
         <v>485</v>
       </c>
-      <c r="S42">
-        <v>6.0</v>
+      <c r="S42" s="1">
+        <v>6</v>
       </c>
       <c r="T42">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U42" t="s">
         <v>54</v>
@@ -18366,7 +18397,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>619</v>
       </c>
@@ -18397,11 +18428,11 @@
       <c r="O43" t="s">
         <v>500</v>
       </c>
-      <c r="S43">
-        <v>6.0</v>
+      <c r="S43" s="1">
+        <v>6</v>
       </c>
       <c r="T43">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U43" t="s">
         <v>54</v>
@@ -18443,7 +18474,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>626</v>
       </c>
@@ -18474,11 +18505,11 @@
       <c r="O44" t="s">
         <v>514</v>
       </c>
-      <c r="S44">
-        <v>6.0</v>
+      <c r="S44" s="1">
+        <v>6</v>
       </c>
       <c r="T44">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U44" t="s">
         <v>54</v>
@@ -18520,7 +18551,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>633</v>
       </c>
@@ -18551,11 +18582,11 @@
       <c r="O45" t="s">
         <v>528</v>
       </c>
-      <c r="S45">
-        <v>6.0</v>
+      <c r="S45" s="1">
+        <v>6</v>
       </c>
       <c r="T45">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U45" t="s">
         <v>529</v>
@@ -18597,7 +18628,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>640</v>
       </c>
@@ -18628,11 +18659,11 @@
       <c r="O46" t="s">
         <v>646</v>
       </c>
-      <c r="S46">
-        <v>6.0</v>
+      <c r="S46" s="1">
+        <v>6</v>
       </c>
       <c r="T46">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U46" t="s">
         <v>438</v>
@@ -18674,7 +18705,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -18705,11 +18736,11 @@
       <c r="O47" t="s">
         <v>392</v>
       </c>
-      <c r="S47">
-        <v>6.0</v>
+      <c r="S47" s="1">
+        <v>6</v>
       </c>
       <c r="T47">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U47" t="s">
         <v>393</v>
@@ -18751,7 +18782,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>669</v>
       </c>
@@ -18785,11 +18816,11 @@
       <c r="R48" t="s">
         <v>677</v>
       </c>
-      <c r="S48">
-        <v>6.0</v>
+      <c r="S48" s="1">
+        <v>6</v>
       </c>
       <c r="T48">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U48" t="s">
         <v>678</v>
@@ -18831,7 +18862,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>687</v>
       </c>
@@ -18865,11 +18896,11 @@
       <c r="R49" t="s">
         <v>694</v>
       </c>
-      <c r="S49">
-        <v>6.0</v>
+      <c r="S49" s="1">
+        <v>6</v>
       </c>
       <c r="T49">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U49" t="s">
         <v>695</v>
@@ -18911,7 +18942,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>704</v>
       </c>
@@ -18945,11 +18976,11 @@
       <c r="R50" t="s">
         <v>710</v>
       </c>
-      <c r="S50">
-        <v>6.0</v>
+      <c r="S50" s="1">
+        <v>6</v>
       </c>
       <c r="T50">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U50" t="s">
         <v>711</v>
@@ -18991,7 +19022,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>720</v>
       </c>
@@ -19025,11 +19056,11 @@
       <c r="R51" t="s">
         <v>727</v>
       </c>
-      <c r="S51">
-        <v>6.0</v>
+      <c r="S51" s="1">
+        <v>6</v>
       </c>
       <c r="T51">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U51" t="s">
         <v>728</v>
@@ -19071,7 +19102,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>737</v>
       </c>
@@ -19114,11 +19145,11 @@
       <c r="O52" t="s">
         <v>745</v>
       </c>
-      <c r="S52">
-        <v>6.0</v>
+      <c r="S52" s="1">
+        <v>6</v>
       </c>
       <c r="T52">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U52" t="s">
         <v>746</v>
@@ -19172,7 +19203,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>760</v>
       </c>
@@ -19215,11 +19246,11 @@
       <c r="O53" t="s">
         <v>745</v>
       </c>
-      <c r="S53">
-        <v>6.0</v>
+      <c r="S53" s="1">
+        <v>6</v>
       </c>
       <c r="T53">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U53" t="s">
         <v>764</v>
@@ -19273,7 +19304,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>772</v>
       </c>
@@ -19316,11 +19347,11 @@
       <c r="O54" t="s">
         <v>745</v>
       </c>
-      <c r="S54">
-        <v>6.0</v>
+      <c r="S54" s="1">
+        <v>6</v>
       </c>
       <c r="T54">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U54" t="s">
         <v>776</v>
@@ -19374,7 +19405,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>784</v>
       </c>
@@ -19417,11 +19448,11 @@
       <c r="O55" t="s">
         <v>745</v>
       </c>
-      <c r="S55">
-        <v>6.0</v>
+      <c r="S55" s="1">
+        <v>6</v>
       </c>
       <c r="T55">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U55" t="s">
         <v>788</v>
@@ -19475,7 +19506,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>796</v>
       </c>
@@ -19518,11 +19549,11 @@
       <c r="O56" t="s">
         <v>745</v>
       </c>
-      <c r="S56">
-        <v>6.0</v>
+      <c r="S56" s="1">
+        <v>6</v>
       </c>
       <c r="T56">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U56" t="s">
         <v>800</v>
@@ -19576,7 +19607,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>808</v>
       </c>
@@ -19619,11 +19650,11 @@
       <c r="O57" t="s">
         <v>745</v>
       </c>
-      <c r="S57">
-        <v>6.0</v>
+      <c r="S57" s="1">
+        <v>6</v>
       </c>
       <c r="T57">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U57" t="s">
         <v>812</v>
@@ -19677,7 +19708,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>820</v>
       </c>
@@ -19720,11 +19751,11 @@
       <c r="O58" t="s">
         <v>745</v>
       </c>
-      <c r="S58">
-        <v>6.0</v>
+      <c r="S58" s="1">
+        <v>6</v>
       </c>
       <c r="T58">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U58" t="s">
         <v>824</v>
@@ -19778,7 +19809,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>832</v>
       </c>
@@ -19821,11 +19852,11 @@
       <c r="O59" t="s">
         <v>745</v>
       </c>
-      <c r="S59">
-        <v>6.0</v>
+      <c r="S59" s="1">
+        <v>6</v>
       </c>
       <c r="T59">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U59" t="s">
         <v>837</v>
@@ -19879,7 +19910,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>845</v>
       </c>
@@ -19910,11 +19941,11 @@
       <c r="O60" t="s">
         <v>851</v>
       </c>
-      <c r="S60">
-        <v>6.0</v>
+      <c r="S60" s="1">
+        <v>6</v>
       </c>
       <c r="T60">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U60" t="s">
         <v>852</v>
@@ -19965,7 +19996,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>865</v>
       </c>
@@ -19996,11 +20027,11 @@
       <c r="O61" t="s">
         <v>870</v>
       </c>
-      <c r="S61">
-        <v>6.0</v>
+      <c r="S61" s="1">
+        <v>6</v>
       </c>
       <c r="T61">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U61" t="s">
         <v>871</v>
@@ -20042,7 +20073,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>881</v>
       </c>
@@ -20073,11 +20104,11 @@
       <c r="O62" t="s">
         <v>887</v>
       </c>
-      <c r="S62">
-        <v>6.0</v>
+      <c r="S62" s="1">
+        <v>6</v>
       </c>
       <c r="T62">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U62" t="s">
         <v>888</v>
@@ -20128,7 +20159,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>901</v>
       </c>
@@ -20159,11 +20190,11 @@
       <c r="O63" t="s">
         <v>339</v>
       </c>
-      <c r="S63">
-        <v>6.0</v>
+      <c r="S63" s="1">
+        <v>6</v>
       </c>
       <c r="T63">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U63" t="s">
         <v>340</v>
@@ -20205,7 +20236,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>913</v>
       </c>
@@ -20236,11 +20267,11 @@
       <c r="O64" t="s">
         <v>359</v>
       </c>
-      <c r="S64">
-        <v>6.0</v>
+      <c r="S64" s="1">
+        <v>6</v>
       </c>
       <c r="T64">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U64" t="s">
         <v>360</v>
@@ -20282,7 +20313,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>924</v>
       </c>
@@ -20313,11 +20344,11 @@
       <c r="O65" t="s">
         <v>928</v>
       </c>
-      <c r="S65">
-        <v>6.0</v>
+      <c r="S65" s="1">
+        <v>6</v>
       </c>
       <c r="T65">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U65" t="s">
         <v>234</v>
@@ -20359,7 +20390,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>937</v>
       </c>
@@ -20390,11 +20421,11 @@
       <c r="O66" t="s">
         <v>941</v>
       </c>
-      <c r="S66">
-        <v>6.0</v>
+      <c r="S66" s="1">
+        <v>6</v>
       </c>
       <c r="T66">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U66" t="s">
         <v>942</v>
@@ -20436,7 +20467,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>952</v>
       </c>
@@ -20467,11 +20498,11 @@
       <c r="O67" t="s">
         <v>957</v>
       </c>
-      <c r="S67">
-        <v>6.0</v>
+      <c r="S67" s="1">
+        <v>6</v>
       </c>
       <c r="T67">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U67" t="s">
         <v>958</v>
@@ -20513,7 +20544,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>967</v>
       </c>
@@ -20544,11 +20575,11 @@
       <c r="O68" t="s">
         <v>972</v>
       </c>
-      <c r="S68">
-        <v>6.0</v>
+      <c r="S68" s="1">
+        <v>6</v>
       </c>
       <c r="T68">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U68" t="s">
         <v>973</v>
@@ -20590,7 +20621,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="69" spans="1:46">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>982</v>
       </c>
@@ -20621,11 +20652,11 @@
       <c r="O69" t="s">
         <v>392</v>
       </c>
-      <c r="S69">
-        <v>6.0</v>
+      <c r="S69" s="1">
+        <v>6</v>
       </c>
       <c r="T69">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U69" t="s">
         <v>393</v>
@@ -20676,7 +20707,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>996</v>
       </c>
@@ -20707,11 +20738,11 @@
       <c r="O70" t="s">
         <v>1001</v>
       </c>
-      <c r="S70">
-        <v>6.0</v>
+      <c r="S70" s="1">
+        <v>6</v>
       </c>
       <c r="T70">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U70" t="s">
         <v>1002</v>
@@ -20753,7 +20784,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1011</v>
       </c>
@@ -20784,11 +20815,11 @@
       <c r="O71" t="s">
         <v>1016</v>
       </c>
-      <c r="S71">
-        <v>6.0</v>
+      <c r="S71" s="1">
+        <v>6</v>
       </c>
       <c r="T71">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U71" t="s">
         <v>1017</v>
@@ -20830,7 +20861,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1027</v>
       </c>
@@ -20861,11 +20892,11 @@
       <c r="O72" t="s">
         <v>1032</v>
       </c>
-      <c r="S72">
-        <v>6.0</v>
+      <c r="S72" s="1">
+        <v>6</v>
       </c>
       <c r="T72">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U72" t="s">
         <v>438</v>
@@ -20907,7 +20938,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="73" spans="1:46">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1042</v>
       </c>
@@ -20938,11 +20969,11 @@
       <c r="O73" t="s">
         <v>1048</v>
       </c>
-      <c r="S73">
-        <v>6.0</v>
+      <c r="S73" s="1">
+        <v>6</v>
       </c>
       <c r="T73">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U73" t="s">
         <v>54</v>
@@ -20984,7 +21015,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="74" spans="1:46">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1057</v>
       </c>
@@ -21015,11 +21046,11 @@
       <c r="O74" t="s">
         <v>528</v>
       </c>
-      <c r="S74">
-        <v>6.0</v>
+      <c r="S74" s="1">
+        <v>6</v>
       </c>
       <c r="T74">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U74" t="s">
         <v>529</v>
@@ -21061,7 +21092,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="75" spans="1:46">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1069</v>
       </c>
@@ -21092,11 +21123,11 @@
       <c r="O75" t="s">
         <v>1073</v>
       </c>
-      <c r="S75">
-        <v>6.0</v>
+      <c r="S75" s="1">
+        <v>6</v>
       </c>
       <c r="T75">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U75" t="s">
         <v>1074</v>
@@ -21138,7 +21169,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="76" spans="1:46">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1084</v>
       </c>
@@ -21169,11 +21200,11 @@
       <c r="O76" t="s">
         <v>1089</v>
       </c>
-      <c r="S76">
-        <v>6.0</v>
+      <c r="S76" s="1">
+        <v>6</v>
       </c>
       <c r="T76">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U76" t="s">
         <v>54</v>
@@ -21215,7 +21246,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="77" spans="1:46">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1098</v>
       </c>
@@ -21246,11 +21277,11 @@
       <c r="O77" t="s">
         <v>1103</v>
       </c>
-      <c r="S77">
-        <v>6.0</v>
+      <c r="S77" s="1">
+        <v>6</v>
       </c>
       <c r="T77">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U77" t="s">
         <v>1104</v>
@@ -21292,7 +21323,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="78" spans="1:46">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1113</v>
       </c>
@@ -21323,11 +21354,11 @@
       <c r="O78" t="s">
         <v>1118</v>
       </c>
-      <c r="S78">
-        <v>6.0</v>
+      <c r="S78" s="1">
+        <v>6</v>
       </c>
       <c r="T78">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U78" t="s">
         <v>1119</v>
@@ -21369,7 +21400,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="79" spans="1:46">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1129</v>
       </c>
@@ -21400,11 +21431,11 @@
       <c r="O79" t="s">
         <v>1134</v>
       </c>
-      <c r="S79">
-        <v>6.0</v>
+      <c r="S79" s="1">
+        <v>6</v>
       </c>
       <c r="T79">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U79" t="s">
         <v>1135</v>
@@ -21446,7 +21477,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="80" spans="1:46">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1145</v>
       </c>
@@ -21477,11 +21508,11 @@
       <c r="O80" t="s">
         <v>1151</v>
       </c>
-      <c r="S80">
-        <v>6.0</v>
+      <c r="S80" s="1">
+        <v>6</v>
       </c>
       <c r="T80">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U80" t="s">
         <v>1152</v>
@@ -21523,7 +21554,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="81" spans="1:46">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1161</v>
       </c>
@@ -21554,11 +21585,11 @@
       <c r="O81" t="s">
         <v>1166</v>
       </c>
-      <c r="S81">
-        <v>6.0</v>
+      <c r="S81" s="1">
+        <v>6</v>
       </c>
       <c r="T81">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U81" t="s">
         <v>1167</v>
@@ -21600,7 +21631,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="82" spans="1:46">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1177</v>
       </c>
@@ -21631,11 +21662,11 @@
       <c r="O82" t="s">
         <v>1182</v>
       </c>
-      <c r="S82">
-        <v>6.0</v>
+      <c r="S82" s="1">
+        <v>6</v>
       </c>
       <c r="T82">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U82" t="s">
         <v>1119</v>
@@ -21677,7 +21708,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="83" spans="1:46">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1192</v>
       </c>
@@ -21708,11 +21739,11 @@
       <c r="O83" t="s">
         <v>1151</v>
       </c>
-      <c r="S83">
-        <v>6.0</v>
+      <c r="S83" s="1">
+        <v>6</v>
       </c>
       <c r="T83">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U83" t="s">
         <v>1198</v>
@@ -21754,7 +21785,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="84" spans="1:46">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1207</v>
       </c>
@@ -21785,11 +21816,11 @@
       <c r="O84" t="s">
         <v>1212</v>
       </c>
-      <c r="S84">
-        <v>6.0</v>
+      <c r="S84" s="1">
+        <v>6</v>
       </c>
       <c r="T84">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U84" t="s">
         <v>1213</v>
@@ -21831,7 +21862,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="85" spans="1:46">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1222</v>
       </c>
@@ -21862,11 +21893,11 @@
       <c r="O85" t="s">
         <v>1227</v>
       </c>
-      <c r="S85">
-        <v>6.0</v>
+      <c r="S85" s="1">
+        <v>6</v>
       </c>
       <c r="T85">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U85" t="s">
         <v>1228</v>
@@ -21908,7 +21939,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="86" spans="1:46">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1238</v>
       </c>
@@ -21939,11 +21970,11 @@
       <c r="O86" t="s">
         <v>1243</v>
       </c>
-      <c r="S86">
-        <v>6.0</v>
+      <c r="S86" s="1">
+        <v>6</v>
       </c>
       <c r="T86">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U86" t="s">
         <v>1244</v>
@@ -21985,7 +22016,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="87" spans="1:46">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1254</v>
       </c>
@@ -22016,11 +22047,11 @@
       <c r="O87" t="s">
         <v>1259</v>
       </c>
-      <c r="S87">
-        <v>6.0</v>
+      <c r="S87" s="1">
+        <v>6</v>
       </c>
       <c r="T87">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U87" t="s">
         <v>1260</v>
@@ -22062,7 +22093,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="88" spans="1:46">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1269</v>
       </c>
@@ -22093,11 +22124,11 @@
       <c r="O88" t="s">
         <v>1274</v>
       </c>
-      <c r="S88">
-        <v>6.0</v>
+      <c r="S88" s="1">
+        <v>6</v>
       </c>
       <c r="T88">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U88" t="s">
         <v>1275</v>
@@ -22139,7 +22170,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="89" spans="1:46">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1284</v>
       </c>
@@ -22170,11 +22201,11 @@
       <c r="O89" t="s">
         <v>1289</v>
       </c>
-      <c r="S89">
-        <v>6.0</v>
+      <c r="S89" s="1">
+        <v>6</v>
       </c>
       <c r="T89">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U89" t="s">
         <v>1290</v>
@@ -22216,7 +22247,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="90" spans="1:46">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1299</v>
       </c>
@@ -22247,11 +22278,11 @@
       <c r="O90" t="s">
         <v>1304</v>
       </c>
-      <c r="S90">
-        <v>6.0</v>
+      <c r="S90" s="1">
+        <v>6</v>
       </c>
       <c r="T90">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U90" t="s">
         <v>1305</v>
@@ -22293,7 +22324,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="91" spans="1:46">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1314</v>
       </c>
@@ -22324,11 +22355,11 @@
       <c r="O91" t="s">
         <v>1319</v>
       </c>
-      <c r="S91">
-        <v>6.0</v>
+      <c r="S91" s="1">
+        <v>6</v>
       </c>
       <c r="T91">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U91" t="s">
         <v>1320</v>
@@ -22370,7 +22401,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="92" spans="1:46">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1329</v>
       </c>
@@ -22401,11 +22432,11 @@
       <c r="O92" t="s">
         <v>1334</v>
       </c>
-      <c r="S92">
-        <v>6.0</v>
+      <c r="S92" s="1">
+        <v>6</v>
       </c>
       <c r="T92">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U92" t="s">
         <v>1228</v>
@@ -22447,7 +22478,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="93" spans="1:46">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1343</v>
       </c>
@@ -22478,11 +22509,11 @@
       <c r="O93" t="s">
         <v>1348</v>
       </c>
-      <c r="S93">
-        <v>6.0</v>
+      <c r="S93" s="1">
+        <v>6</v>
       </c>
       <c r="T93">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U93" t="s">
         <v>1349</v>
@@ -22524,7 +22555,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="94" spans="1:46">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1359</v>
       </c>
@@ -22555,11 +22586,11 @@
       <c r="O94" t="s">
         <v>1348</v>
       </c>
-      <c r="S94">
-        <v>6.0</v>
+      <c r="S94" s="1">
+        <v>6</v>
       </c>
       <c r="T94">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U94" t="s">
         <v>1364</v>
@@ -22601,7 +22632,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="95" spans="1:46">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1373</v>
       </c>
@@ -22632,11 +22663,11 @@
       <c r="O95" t="s">
         <v>1378</v>
       </c>
-      <c r="S95">
-        <v>6.0</v>
+      <c r="S95" s="1">
+        <v>6</v>
       </c>
       <c r="T95">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U95" t="s">
         <v>1379</v>
@@ -22678,7 +22709,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="96" spans="1:46">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1389</v>
       </c>
@@ -22709,11 +22740,11 @@
       <c r="O96" t="s">
         <v>1395</v>
       </c>
-      <c r="S96">
-        <v>6.0</v>
+      <c r="S96" s="1">
+        <v>6</v>
       </c>
       <c r="T96">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U96" t="s">
         <v>1396</v>
@@ -22755,7 +22786,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="97" spans="1:46">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1406</v>
       </c>
@@ -22786,11 +22817,11 @@
       <c r="O97" t="s">
         <v>1410</v>
       </c>
-      <c r="S97">
-        <v>6.0</v>
+      <c r="S97" s="1">
+        <v>6</v>
       </c>
       <c r="T97">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U97" t="s">
         <v>973</v>
@@ -22832,7 +22863,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="98" spans="1:46">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1420</v>
       </c>
@@ -22863,11 +22894,11 @@
       <c r="O98" t="s">
         <v>1425</v>
       </c>
-      <c r="S98">
-        <v>6.0</v>
+      <c r="S98" s="1">
+        <v>6</v>
       </c>
       <c r="T98">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U98" t="s">
         <v>54</v>
@@ -22909,7 +22940,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="99" spans="1:46">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1435</v>
       </c>
@@ -22940,11 +22971,11 @@
       <c r="O99" t="s">
         <v>1440</v>
       </c>
-      <c r="S99">
-        <v>6.0</v>
+      <c r="S99" s="1">
+        <v>6</v>
       </c>
       <c r="T99">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U99" t="s">
         <v>1441</v>
@@ -22986,7 +23017,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="100" spans="1:46">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1451</v>
       </c>
@@ -23017,11 +23048,11 @@
       <c r="O100" t="s">
         <v>1440</v>
       </c>
-      <c r="S100">
-        <v>6.0</v>
+      <c r="S100" s="1">
+        <v>6</v>
       </c>
       <c r="T100">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U100" t="s">
         <v>423</v>
@@ -23063,7 +23094,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="101" spans="1:46">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1465</v>
       </c>
@@ -23094,11 +23125,11 @@
       <c r="O101" t="s">
         <v>1470</v>
       </c>
-      <c r="S101">
-        <v>6.0</v>
+      <c r="S101" s="1">
+        <v>6</v>
       </c>
       <c r="T101">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U101" t="s">
         <v>360</v>
@@ -23140,7 +23171,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="102" spans="1:46">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1480</v>
       </c>
@@ -23171,11 +23202,11 @@
       <c r="O102" t="s">
         <v>1470</v>
       </c>
-      <c r="S102">
-        <v>6.0</v>
+      <c r="S102" s="1">
+        <v>6</v>
       </c>
       <c r="T102">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U102" t="s">
         <v>302</v>
@@ -23217,7 +23248,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="103" spans="1:46">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1494</v>
       </c>
@@ -23248,11 +23279,11 @@
       <c r="O103" t="s">
         <v>1470</v>
       </c>
-      <c r="S103">
-        <v>6.0</v>
+      <c r="S103" s="1">
+        <v>6</v>
       </c>
       <c r="T103">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U103" t="s">
         <v>1498</v>
@@ -23294,7 +23325,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="104" spans="1:46">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1508</v>
       </c>
@@ -23325,11 +23356,11 @@
       <c r="O104" t="s">
         <v>1470</v>
       </c>
-      <c r="S104">
-        <v>6.0</v>
+      <c r="S104" s="1">
+        <v>6</v>
       </c>
       <c r="T104">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U104" t="s">
         <v>438</v>
@@ -23371,7 +23402,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="105" spans="1:46">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1521</v>
       </c>
@@ -23402,11 +23433,11 @@
       <c r="O105" t="s">
         <v>1526</v>
       </c>
-      <c r="S105">
-        <v>6.0</v>
+      <c r="S105" s="1">
+        <v>6</v>
       </c>
       <c r="T105">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U105" t="s">
         <v>1527</v>
@@ -23448,7 +23479,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="106" spans="1:46">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1537</v>
       </c>
@@ -23479,11 +23510,11 @@
       <c r="O106" t="s">
         <v>1526</v>
       </c>
-      <c r="S106">
-        <v>6.0</v>
+      <c r="S106" s="1">
+        <v>6</v>
       </c>
       <c r="T106">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U106" t="s">
         <v>1542</v>
@@ -23525,7 +23556,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="107" spans="1:46">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1552</v>
       </c>
@@ -23556,11 +23587,11 @@
       <c r="O107" t="s">
         <v>1557</v>
       </c>
-      <c r="S107">
-        <v>6.0</v>
+      <c r="S107" s="1">
+        <v>6</v>
       </c>
       <c r="T107">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U107" t="s">
         <v>1527</v>
@@ -23602,7 +23633,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="108" spans="1:46">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1567</v>
       </c>
@@ -23633,11 +23664,11 @@
       <c r="O108" t="s">
         <v>1571</v>
       </c>
-      <c r="S108">
-        <v>6.0</v>
+      <c r="S108" s="1">
+        <v>6</v>
       </c>
       <c r="T108">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U108" t="s">
         <v>1542</v>
@@ -23679,7 +23710,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="109" spans="1:46">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1581</v>
       </c>
@@ -23710,11 +23741,11 @@
       <c r="O109" t="s">
         <v>1586</v>
       </c>
-      <c r="S109">
-        <v>6.0</v>
+      <c r="S109" s="1">
+        <v>6</v>
       </c>
       <c r="T109">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U109" t="s">
         <v>393</v>
@@ -23756,7 +23787,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="110" spans="1:46">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1596</v>
       </c>
@@ -23787,11 +23818,11 @@
       <c r="O110" t="s">
         <v>1600</v>
       </c>
-      <c r="S110">
-        <v>6.0</v>
+      <c r="S110" s="1">
+        <v>6</v>
       </c>
       <c r="T110">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U110" t="s">
         <v>1601</v>
@@ -23833,7 +23864,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="111" spans="1:46">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1611</v>
       </c>
@@ -23864,11 +23895,11 @@
       <c r="O111" t="s">
         <v>1600</v>
       </c>
-      <c r="S111">
-        <v>6.0</v>
+      <c r="S111" s="1">
+        <v>6</v>
       </c>
       <c r="T111">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U111" t="s">
         <v>1601</v>
@@ -23910,7 +23941,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="112" spans="1:46">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1620</v>
       </c>
@@ -23941,11 +23972,11 @@
       <c r="O112" t="s">
         <v>1624</v>
       </c>
-      <c r="S112">
-        <v>6.0</v>
+      <c r="S112" s="1">
+        <v>6</v>
       </c>
       <c r="T112">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U112" t="s">
         <v>73</v>
@@ -23987,7 +24018,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="113" spans="1:46">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1633</v>
       </c>
@@ -24018,11 +24049,11 @@
       <c r="O113" t="s">
         <v>1637</v>
       </c>
-      <c r="S113">
-        <v>6.0</v>
+      <c r="S113" s="1">
+        <v>6</v>
       </c>
       <c r="T113">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U113" t="s">
         <v>1002</v>
@@ -24064,7 +24095,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="114" spans="1:46">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1646</v>
       </c>
@@ -24095,11 +24126,11 @@
       <c r="O114" t="s">
         <v>1016</v>
       </c>
-      <c r="S114">
-        <v>6.0</v>
+      <c r="S114" s="1">
+        <v>6</v>
       </c>
       <c r="T114">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U114" t="s">
         <v>1017</v>
@@ -24141,7 +24172,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="115" spans="1:46">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1657</v>
       </c>
@@ -24172,11 +24203,11 @@
       <c r="O115" t="s">
         <v>1661</v>
       </c>
-      <c r="S115">
-        <v>6.0</v>
+      <c r="S115" s="1">
+        <v>6</v>
       </c>
       <c r="T115">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U115" t="s">
         <v>1104</v>
@@ -24218,7 +24249,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="116" spans="1:46">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1671</v>
       </c>
@@ -24249,11 +24280,11 @@
       <c r="O116" t="s">
         <v>1675</v>
       </c>
-      <c r="S116">
-        <v>6.0</v>
+      <c r="S116" s="1">
+        <v>6</v>
       </c>
       <c r="T116">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U116" t="s">
         <v>1228</v>
@@ -24295,7 +24326,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="117" spans="1:46">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1685</v>
       </c>
@@ -24326,11 +24357,11 @@
       <c r="O117" t="s">
         <v>1689</v>
       </c>
-      <c r="S117">
-        <v>6.0</v>
+      <c r="S117" s="1">
+        <v>6</v>
       </c>
       <c r="T117">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U117" t="s">
         <v>1228</v>
@@ -24372,7 +24403,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="118" spans="1:46">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1698</v>
       </c>
@@ -24403,11 +24434,11 @@
       <c r="O118" t="s">
         <v>1702</v>
       </c>
-      <c r="S118">
-        <v>6.0</v>
+      <c r="S118" s="1">
+        <v>6</v>
       </c>
       <c r="T118">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U118" t="s">
         <v>1228</v>
@@ -24449,7 +24480,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="119" spans="1:46">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1712</v>
       </c>
@@ -24480,11 +24511,11 @@
       <c r="O119" t="s">
         <v>1716</v>
       </c>
-      <c r="S119">
-        <v>6.0</v>
+      <c r="S119" s="1">
+        <v>6</v>
       </c>
       <c r="T119">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U119" t="s">
         <v>1228</v>
@@ -24526,7 +24557,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="120" spans="1:46">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1725</v>
       </c>
@@ -24557,11 +24588,11 @@
       <c r="O120" t="s">
         <v>1729</v>
       </c>
-      <c r="S120">
-        <v>6.0</v>
+      <c r="S120" s="1">
+        <v>6</v>
       </c>
       <c r="T120">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U120" t="s">
         <v>1228</v>
@@ -24603,7 +24634,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="121" spans="1:46">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1738</v>
       </c>
@@ -24634,11 +24665,11 @@
       <c r="O121" t="s">
         <v>1742</v>
       </c>
-      <c r="S121">
-        <v>6.0</v>
+      <c r="S121" s="1">
+        <v>6</v>
       </c>
       <c r="T121">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U121" t="s">
         <v>1743</v>
@@ -24680,7 +24711,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="122" spans="1:46">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1752</v>
       </c>
@@ -24711,11 +24742,11 @@
       <c r="O122" t="s">
         <v>1756</v>
       </c>
-      <c r="S122">
-        <v>6.0</v>
+      <c r="S122" s="1">
+        <v>6</v>
       </c>
       <c r="T122">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U122" t="s">
         <v>1228</v>
@@ -24757,7 +24788,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="123" spans="1:46">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1765</v>
       </c>
@@ -24788,11 +24819,11 @@
       <c r="O123" t="s">
         <v>1769</v>
       </c>
-      <c r="S123">
-        <v>6.0</v>
+      <c r="S123" s="1">
+        <v>6</v>
       </c>
       <c r="T123">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U123" t="s">
         <v>1228</v>
@@ -24834,7 +24865,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="124" spans="1:46">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1779</v>
       </c>
@@ -24865,11 +24896,11 @@
       <c r="O124" t="s">
         <v>1783</v>
       </c>
-      <c r="S124">
-        <v>6.0</v>
+      <c r="S124" s="1">
+        <v>6</v>
       </c>
       <c r="T124">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U124" t="s">
         <v>1228</v>
@@ -24911,7 +24942,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="125" spans="1:46">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1792</v>
       </c>
@@ -24942,11 +24973,11 @@
       <c r="O125" t="s">
         <v>1796</v>
       </c>
-      <c r="S125">
-        <v>6.0</v>
+      <c r="S125" s="1">
+        <v>6</v>
       </c>
       <c r="T125">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U125" t="s">
         <v>1228</v>
@@ -24988,7 +25019,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="126" spans="1:46">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1805</v>
       </c>
@@ -25019,11 +25050,11 @@
       <c r="O126" t="s">
         <v>1810</v>
       </c>
-      <c r="S126">
-        <v>6.0</v>
+      <c r="S126" s="1">
+        <v>6</v>
       </c>
       <c r="T126">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U126" t="s">
         <v>1811</v>
@@ -25065,7 +25096,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="127" spans="1:46">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1820</v>
       </c>
@@ -25096,11 +25127,11 @@
       <c r="O127" t="s">
         <v>1729</v>
       </c>
-      <c r="S127">
-        <v>6.0</v>
+      <c r="S127" s="1">
+        <v>6</v>
       </c>
       <c r="T127">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U127" t="s">
         <v>1825</v>
@@ -25142,7 +25173,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="128" spans="1:46">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1834</v>
       </c>
@@ -25173,11 +25204,11 @@
       <c r="O128" t="s">
         <v>1839</v>
       </c>
-      <c r="S128">
-        <v>6.0</v>
+      <c r="S128" s="1">
+        <v>6</v>
       </c>
       <c r="T128">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U128" t="s">
         <v>1840</v>
@@ -25219,7 +25250,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="129" spans="1:46">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1849</v>
       </c>
@@ -25250,11 +25281,11 @@
       <c r="O129" t="s">
         <v>1853</v>
       </c>
-      <c r="S129">
-        <v>6.0</v>
+      <c r="S129" s="1">
+        <v>6</v>
       </c>
       <c r="T129">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U129" t="s">
         <v>1854</v>
@@ -25296,7 +25327,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="130" spans="1:46">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1863</v>
       </c>
@@ -25327,11 +25358,11 @@
       <c r="O130" t="s">
         <v>1729</v>
       </c>
-      <c r="S130">
-        <v>6.0</v>
+      <c r="S130" s="1">
+        <v>6</v>
       </c>
       <c r="T130">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U130" t="s">
         <v>1867</v>
@@ -25373,7 +25404,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="131" spans="1:46">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1876</v>
       </c>
@@ -25404,11 +25435,11 @@
       <c r="O131" t="s">
         <v>1729</v>
       </c>
-      <c r="S131">
-        <v>6.0</v>
+      <c r="S131" s="1">
+        <v>6</v>
       </c>
       <c r="T131">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U131" t="s">
         <v>1880</v>
@@ -25450,7 +25481,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="132" spans="1:46">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1889</v>
       </c>
@@ -25481,11 +25512,11 @@
       <c r="O132" t="s">
         <v>1893</v>
       </c>
-      <c r="S132">
-        <v>6.0</v>
+      <c r="S132" s="1">
+        <v>6</v>
       </c>
       <c r="T132">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U132" t="s">
         <v>1894</v>
@@ -25527,7 +25558,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="133" spans="1:46">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1903</v>
       </c>
@@ -25558,11 +25589,11 @@
       <c r="O133" t="s">
         <v>1907</v>
       </c>
-      <c r="S133">
-        <v>6.0</v>
+      <c r="S133" s="1">
+        <v>6</v>
       </c>
       <c r="T133">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U133" t="s">
         <v>1908</v>
@@ -25604,7 +25635,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="134" spans="1:46">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1918</v>
       </c>
@@ -25635,11 +25666,11 @@
       <c r="O134" t="s">
         <v>1922</v>
       </c>
-      <c r="S134">
-        <v>6.0</v>
+      <c r="S134" s="1">
+        <v>6</v>
       </c>
       <c r="T134">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U134" t="s">
         <v>1923</v>
@@ -25681,7 +25712,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="135" spans="1:46">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1933</v>
       </c>
@@ -25712,11 +25743,11 @@
       <c r="O135" t="s">
         <v>1937</v>
       </c>
-      <c r="S135">
-        <v>6.0</v>
+      <c r="S135" s="1">
+        <v>6</v>
       </c>
       <c r="T135">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U135" t="s">
         <v>1938</v>
@@ -25758,7 +25789,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="136" spans="1:46">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1948</v>
       </c>
@@ -25789,11 +25820,11 @@
       <c r="O136" t="s">
         <v>1769</v>
       </c>
-      <c r="S136">
-        <v>6.0</v>
+      <c r="S136" s="1">
+        <v>6</v>
       </c>
       <c r="T136">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U136" t="s">
         <v>1953</v>
@@ -25835,7 +25866,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="137" spans="1:46">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1962</v>
       </c>
@@ -25866,11 +25897,11 @@
       <c r="O137" t="s">
         <v>1966</v>
       </c>
-      <c r="S137">
-        <v>6.0</v>
+      <c r="S137" s="1">
+        <v>6</v>
       </c>
       <c r="T137">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U137" t="s">
         <v>1967</v>
@@ -25912,7 +25943,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="138" spans="1:46">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1977</v>
       </c>
@@ -25943,11 +25974,11 @@
       <c r="O138" t="s">
         <v>1982</v>
       </c>
-      <c r="S138">
-        <v>6.0</v>
+      <c r="S138" s="1">
+        <v>6</v>
       </c>
       <c r="T138">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U138" t="s">
         <v>1983</v>
@@ -25989,7 +26020,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="139" spans="1:46">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1992</v>
       </c>
@@ -26020,11 +26051,11 @@
       <c r="O139" t="s">
         <v>1996</v>
       </c>
-      <c r="S139">
-        <v>6.0</v>
+      <c r="S139" s="1">
+        <v>6</v>
       </c>
       <c r="T139">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U139" t="s">
         <v>1228</v>
@@ -26066,7 +26097,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="140" spans="1:46">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2005</v>
       </c>
@@ -26097,11 +26128,11 @@
       <c r="O140" t="s">
         <v>2009</v>
       </c>
-      <c r="S140">
-        <v>6.0</v>
+      <c r="S140" s="1">
+        <v>6</v>
       </c>
       <c r="T140">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U140" t="s">
         <v>2010</v>
@@ -26143,7 +26174,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="141" spans="1:46">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2019</v>
       </c>
@@ -26174,11 +26205,11 @@
       <c r="O141" t="s">
         <v>2023</v>
       </c>
-      <c r="S141">
-        <v>6.0</v>
+      <c r="S141" s="1">
+        <v>6</v>
       </c>
       <c r="T141">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U141" t="s">
         <v>2024</v>
@@ -26220,7 +26251,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="142" spans="1:46">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2033</v>
       </c>
@@ -26251,11 +26282,11 @@
       <c r="O142" t="s">
         <v>2037</v>
       </c>
-      <c r="S142">
-        <v>6.0</v>
+      <c r="S142" s="1">
+        <v>6</v>
       </c>
       <c r="T142">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U142" t="s">
         <v>2038</v>
@@ -26297,7 +26328,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="143" spans="1:46">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2048</v>
       </c>
@@ -26328,11 +26359,11 @@
       <c r="O143" t="s">
         <v>2052</v>
       </c>
-      <c r="S143">
-        <v>6.0</v>
+      <c r="S143" s="1">
+        <v>6</v>
       </c>
       <c r="T143">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U143" t="s">
         <v>2053</v>
@@ -26374,7 +26405,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="144" spans="1:46">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2062</v>
       </c>
@@ -26405,11 +26436,11 @@
       <c r="O144" t="s">
         <v>1966</v>
       </c>
-      <c r="S144">
-        <v>6.0</v>
+      <c r="S144" s="1">
+        <v>6</v>
       </c>
       <c r="T144">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U144" t="s">
         <v>2066</v>
@@ -26451,7 +26482,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="145" spans="1:46">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2075</v>
       </c>
@@ -26482,11 +26513,11 @@
       <c r="O145" t="s">
         <v>2052</v>
       </c>
-      <c r="S145">
-        <v>6.0</v>
+      <c r="S145" s="1">
+        <v>6</v>
       </c>
       <c r="T145">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U145" t="s">
         <v>2080</v>
@@ -26528,7 +26559,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="146" spans="1:46">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2089</v>
       </c>
@@ -26559,11 +26590,11 @@
       <c r="O146" t="s">
         <v>2093</v>
       </c>
-      <c r="S146">
-        <v>6.0</v>
+      <c r="S146" s="1">
+        <v>6</v>
       </c>
       <c r="T146">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U146" t="s">
         <v>2094</v>
@@ -26605,7 +26636,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="147" spans="1:46">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2103</v>
       </c>
@@ -26636,11 +26667,11 @@
       <c r="O147" t="s">
         <v>2107</v>
       </c>
-      <c r="S147">
-        <v>6.0</v>
+      <c r="S147" s="1">
+        <v>6</v>
       </c>
       <c r="T147">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U147" t="s">
         <v>2108</v>
@@ -26682,7 +26713,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="148" spans="1:46">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2118</v>
       </c>
@@ -26713,11 +26744,11 @@
       <c r="O148" t="s">
         <v>2122</v>
       </c>
-      <c r="S148">
-        <v>6.0</v>
+      <c r="S148" s="1">
+        <v>6</v>
       </c>
       <c r="T148">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U148" t="s">
         <v>2123</v>
@@ -26759,7 +26790,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="149" spans="1:46">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2132</v>
       </c>
@@ -26790,11 +26821,11 @@
       <c r="O149" t="s">
         <v>2137</v>
       </c>
-      <c r="S149">
-        <v>6.0</v>
+      <c r="S149" s="1">
+        <v>6</v>
       </c>
       <c r="T149">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U149" t="s">
         <v>2138</v>
@@ -26836,7 +26867,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="150" spans="1:46">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2147</v>
       </c>
@@ -26867,11 +26898,11 @@
       <c r="O150" t="s">
         <v>1966</v>
       </c>
-      <c r="S150">
-        <v>6.0</v>
+      <c r="S150" s="1">
+        <v>6</v>
       </c>
       <c r="T150">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U150" t="s">
         <v>2152</v>
@@ -26913,7 +26944,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="151" spans="1:46">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2162</v>
       </c>
@@ -26944,11 +26975,11 @@
       <c r="O151" t="s">
         <v>2166</v>
       </c>
-      <c r="S151">
-        <v>6.0</v>
+      <c r="S151" s="1">
+        <v>6</v>
       </c>
       <c r="T151">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U151" t="s">
         <v>2167</v>
@@ -26990,7 +27021,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="152" spans="1:46">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2176</v>
       </c>
@@ -27021,11 +27052,11 @@
       <c r="O152" t="s">
         <v>2180</v>
       </c>
-      <c r="S152">
-        <v>6.0</v>
+      <c r="S152" s="1">
+        <v>6</v>
       </c>
       <c r="T152">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U152" t="s">
         <v>2181</v>
@@ -27067,7 +27098,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="153" spans="1:46">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2190</v>
       </c>
@@ -27098,11 +27129,11 @@
       <c r="O153" t="s">
         <v>2194</v>
       </c>
-      <c r="S153">
-        <v>6.0</v>
+      <c r="S153" s="1">
+        <v>6</v>
       </c>
       <c r="T153">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U153" t="s">
         <v>2195</v>
@@ -27144,7 +27175,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="154" spans="1:46">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2204</v>
       </c>
@@ -27175,11 +27206,11 @@
       <c r="O154" t="s">
         <v>2208</v>
       </c>
-      <c r="S154">
-        <v>6.0</v>
+      <c r="S154" s="1">
+        <v>6</v>
       </c>
       <c r="T154">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U154" t="s">
         <v>2209</v>
@@ -27221,7 +27252,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="155" spans="1:46">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2218</v>
       </c>
@@ -27252,11 +27283,11 @@
       <c r="O155" t="s">
         <v>2222</v>
       </c>
-      <c r="S155">
-        <v>6.0</v>
+      <c r="S155" s="1">
+        <v>6</v>
       </c>
       <c r="T155">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U155" t="s">
         <v>2223</v>
@@ -27298,7 +27329,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="156" spans="1:46">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2233</v>
       </c>
@@ -27329,11 +27360,11 @@
       <c r="O156" t="s">
         <v>2237</v>
       </c>
-      <c r="S156">
-        <v>6.0</v>
+      <c r="S156" s="1">
+        <v>6</v>
       </c>
       <c r="T156">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U156" t="s">
         <v>2238</v>
@@ -27375,7 +27406,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="157" spans="1:46">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>2248</v>
       </c>
@@ -27406,11 +27437,11 @@
       <c r="O157" t="s">
         <v>2252</v>
       </c>
-      <c r="S157">
-        <v>6.0</v>
+      <c r="S157" s="1">
+        <v>6</v>
       </c>
       <c r="T157">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U157" t="s">
         <v>2253</v>
@@ -27452,7 +27483,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="158" spans="1:46">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2263</v>
       </c>
@@ -27483,11 +27514,11 @@
       <c r="O158" t="s">
         <v>1810</v>
       </c>
-      <c r="S158">
-        <v>6.0</v>
+      <c r="S158" s="1">
+        <v>6</v>
       </c>
       <c r="T158">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U158" t="s">
         <v>54</v>
@@ -27529,7 +27560,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="159" spans="1:46">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2275</v>
       </c>
@@ -27560,11 +27591,11 @@
       <c r="O159" t="s">
         <v>2279</v>
       </c>
-      <c r="S159">
-        <v>6.0</v>
+      <c r="S159" s="1">
+        <v>6</v>
       </c>
       <c r="T159">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U159" t="s">
         <v>2280</v>
@@ -27606,7 +27637,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="160" spans="1:46">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2290</v>
       </c>
@@ -27637,11 +27668,11 @@
       <c r="O160" t="s">
         <v>2294</v>
       </c>
-      <c r="S160">
-        <v>6.0</v>
+      <c r="S160" s="1">
+        <v>6</v>
       </c>
       <c r="T160">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U160" t="s">
         <v>2295</v>
@@ -27683,7 +27714,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="161" spans="1:46">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2304</v>
       </c>
@@ -27714,11 +27745,11 @@
       <c r="O161" t="s">
         <v>2308</v>
       </c>
-      <c r="S161">
-        <v>6.0</v>
+      <c r="S161" s="1">
+        <v>6</v>
       </c>
       <c r="T161">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U161" t="s">
         <v>2295</v>
@@ -27760,7 +27791,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="162" spans="1:46">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2318</v>
       </c>
@@ -27791,11 +27822,11 @@
       <c r="O162" t="s">
         <v>2322</v>
       </c>
-      <c r="S162">
-        <v>6.0</v>
+      <c r="S162" s="1">
+        <v>6</v>
       </c>
       <c r="T162">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U162" t="s">
         <v>2323</v>
@@ -27837,7 +27868,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="163" spans="1:46">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2333</v>
       </c>
@@ -27868,11 +27899,11 @@
       <c r="O163" t="s">
         <v>2337</v>
       </c>
-      <c r="S163">
-        <v>6.0</v>
+      <c r="S163" s="1">
+        <v>6</v>
       </c>
       <c r="T163">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U163" t="s">
         <v>2338</v>
@@ -27914,7 +27945,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="164" spans="1:46">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2347</v>
       </c>
@@ -27945,11 +27976,11 @@
       <c r="O164" t="s">
         <v>2351</v>
       </c>
-      <c r="S164">
-        <v>6.0</v>
+      <c r="S164" s="1">
+        <v>6</v>
       </c>
       <c r="T164">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U164" t="s">
         <v>2080</v>
@@ -27991,7 +28022,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="165" spans="1:46">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2361</v>
       </c>
@@ -28022,11 +28053,11 @@
       <c r="O165" t="s">
         <v>2365</v>
       </c>
-      <c r="S165">
-        <v>6.0</v>
+      <c r="S165" s="1">
+        <v>6</v>
       </c>
       <c r="T165">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U165" t="s">
         <v>1923</v>
@@ -28068,7 +28099,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="166" spans="1:46">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2374</v>
       </c>
@@ -28099,11 +28130,11 @@
       <c r="O166" t="s">
         <v>2378</v>
       </c>
-      <c r="S166">
-        <v>6.0</v>
+      <c r="S166" s="1">
+        <v>6</v>
       </c>
       <c r="T166">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U166" t="s">
         <v>1167</v>
@@ -28145,7 +28176,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="167" spans="1:46">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2387</v>
       </c>
@@ -28176,11 +28207,11 @@
       <c r="O167" t="s">
         <v>2391</v>
       </c>
-      <c r="S167">
-        <v>6.0</v>
+      <c r="S167" s="1">
+        <v>6</v>
       </c>
       <c r="T167">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U167" t="s">
         <v>2392</v>
@@ -28222,7 +28253,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="168" spans="1:46">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2401</v>
       </c>
@@ -28253,11 +28284,11 @@
       <c r="O168" t="s">
         <v>2405</v>
       </c>
-      <c r="S168">
-        <v>6.0</v>
+      <c r="S168" s="1">
+        <v>6</v>
       </c>
       <c r="T168">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U168" t="s">
         <v>2080</v>
@@ -28299,7 +28330,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="169" spans="1:46">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2414</v>
       </c>
@@ -28330,11 +28361,11 @@
       <c r="O169" t="s">
         <v>2418</v>
       </c>
-      <c r="S169">
-        <v>6.0</v>
+      <c r="S169" s="1">
+        <v>6</v>
       </c>
       <c r="T169">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U169" t="s">
         <v>2080</v>
@@ -28376,7 +28407,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="170" spans="1:46">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2427</v>
       </c>
@@ -28407,11 +28438,11 @@
       <c r="O170" t="s">
         <v>2431</v>
       </c>
-      <c r="S170">
-        <v>6.0</v>
+      <c r="S170" s="1">
+        <v>6</v>
       </c>
       <c r="T170">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U170" t="s">
         <v>2432</v>
@@ -28453,7 +28484,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="171" spans="1:46">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2441</v>
       </c>
@@ -28484,11 +28515,11 @@
       <c r="O171" t="s">
         <v>2445</v>
       </c>
-      <c r="S171">
-        <v>6.0</v>
+      <c r="S171" s="1">
+        <v>6</v>
       </c>
       <c r="T171">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U171" t="s">
         <v>2080</v>
@@ -28530,7 +28561,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="172" spans="1:46">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2454</v>
       </c>
@@ -28561,11 +28592,11 @@
       <c r="O172" t="s">
         <v>2458</v>
       </c>
-      <c r="S172">
-        <v>6.0</v>
+      <c r="S172" s="1">
+        <v>6</v>
       </c>
       <c r="T172">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U172" t="s">
         <v>1119</v>
@@ -28607,7 +28638,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="173" spans="1:46">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2467</v>
       </c>
@@ -28638,11 +28669,11 @@
       <c r="O173" t="s">
         <v>2471</v>
       </c>
-      <c r="S173">
-        <v>6.0</v>
+      <c r="S173" s="1">
+        <v>6</v>
       </c>
       <c r="T173">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U173" t="s">
         <v>2472</v>
@@ -28684,7 +28715,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="174" spans="1:46">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2481</v>
       </c>
@@ -28715,11 +28746,11 @@
       <c r="O174" t="s">
         <v>2485</v>
       </c>
-      <c r="S174">
-        <v>6.0</v>
+      <c r="S174" s="1">
+        <v>6</v>
       </c>
       <c r="T174">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U174" t="s">
         <v>2472</v>
@@ -28761,7 +28792,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="175" spans="1:46">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2494</v>
       </c>
@@ -28792,11 +28823,11 @@
       <c r="O175" t="s">
         <v>2498</v>
       </c>
-      <c r="S175">
-        <v>6.0</v>
+      <c r="S175" s="1">
+        <v>6</v>
       </c>
       <c r="T175">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U175" t="s">
         <v>2499</v>
@@ -28838,7 +28869,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="176" spans="1:46">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2508</v>
       </c>
@@ -28869,11 +28900,11 @@
       <c r="O176" t="s">
         <v>2512</v>
       </c>
-      <c r="S176">
-        <v>6.0</v>
+      <c r="S176" s="1">
+        <v>6</v>
       </c>
       <c r="T176">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U176" t="s">
         <v>2499</v>
@@ -28915,7 +28946,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="177" spans="1:46">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2521</v>
       </c>
@@ -28946,11 +28977,11 @@
       <c r="O177" t="s">
         <v>2525</v>
       </c>
-      <c r="S177">
-        <v>6.0</v>
+      <c r="S177" s="1">
+        <v>6</v>
       </c>
       <c r="T177">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U177" t="s">
         <v>2526</v>
@@ -28992,7 +29023,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="178" spans="1:46">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2535</v>
       </c>
@@ -29023,11 +29054,11 @@
       <c r="O178" t="s">
         <v>2539</v>
       </c>
-      <c r="S178">
-        <v>6.0</v>
+      <c r="S178" s="1">
+        <v>6</v>
       </c>
       <c r="T178">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U178" t="s">
         <v>2540</v>
@@ -29069,7 +29100,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="179" spans="1:46">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2549</v>
       </c>
@@ -29100,11 +29131,11 @@
       <c r="O179" t="s">
         <v>2485</v>
       </c>
-      <c r="S179">
-        <v>6.0</v>
+      <c r="S179" s="1">
+        <v>6</v>
       </c>
       <c r="T179">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U179" t="s">
         <v>1135</v>
@@ -29146,7 +29177,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="180" spans="1:46">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2561</v>
       </c>
@@ -29177,11 +29208,11 @@
       <c r="O180" t="s">
         <v>2566</v>
       </c>
-      <c r="S180">
-        <v>6.0</v>
+      <c r="S180" s="1">
+        <v>6</v>
       </c>
       <c r="T180">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U180" t="s">
         <v>2567</v>
@@ -29223,7 +29254,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="181" spans="1:46">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2577</v>
       </c>
@@ -29254,11 +29285,11 @@
       <c r="O181" t="s">
         <v>1227</v>
       </c>
-      <c r="S181">
-        <v>6.0</v>
+      <c r="S181" s="1">
+        <v>6</v>
       </c>
       <c r="T181">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U181" t="s">
         <v>2579</v>
@@ -29300,7 +29331,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="182" spans="1:46">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2588</v>
       </c>
@@ -29331,11 +29362,11 @@
       <c r="O182" t="s">
         <v>2593</v>
       </c>
-      <c r="S182">
-        <v>6.0</v>
+      <c r="S182" s="1">
+        <v>6</v>
       </c>
       <c r="T182">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U182" t="s">
         <v>202</v>
@@ -29377,7 +29408,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="183" spans="1:46">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2602</v>
       </c>
@@ -29408,11 +29439,11 @@
       <c r="O183" t="s">
         <v>2607</v>
       </c>
-      <c r="S183">
-        <v>6.0</v>
+      <c r="S183" s="1">
+        <v>6</v>
       </c>
       <c r="T183">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U183" t="s">
         <v>2608</v>
@@ -29454,7 +29485,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="184" spans="1:46">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2618</v>
       </c>
@@ -29485,11 +29516,11 @@
       <c r="O184" t="s">
         <v>2607</v>
       </c>
-      <c r="S184">
-        <v>6.0</v>
+      <c r="S184" s="1">
+        <v>6</v>
       </c>
       <c r="T184">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U184" t="s">
         <v>2622</v>
@@ -29531,7 +29562,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="185" spans="1:46">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2631</v>
       </c>
@@ -29562,11 +29593,11 @@
       <c r="O185" t="s">
         <v>2636</v>
       </c>
-      <c r="S185">
-        <v>6.0</v>
+      <c r="S185" s="1">
+        <v>6</v>
       </c>
       <c r="T185">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U185" t="s">
         <v>2637</v>
@@ -29608,7 +29639,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="186" spans="1:46">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2647</v>
       </c>
@@ -29639,11 +29670,11 @@
       <c r="O186" t="s">
         <v>1395</v>
       </c>
-      <c r="S186">
-        <v>6.0</v>
+      <c r="S186" s="1">
+        <v>6</v>
       </c>
       <c r="T186">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U186" t="s">
         <v>302</v>
@@ -29685,7 +29716,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="187" spans="1:46">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2661</v>
       </c>
@@ -29716,11 +29747,11 @@
       <c r="O187" t="s">
         <v>1395</v>
       </c>
-      <c r="S187">
-        <v>6.0</v>
+      <c r="S187" s="1">
+        <v>6</v>
       </c>
       <c r="T187">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U187" t="s">
         <v>2665</v>
@@ -29762,7 +29793,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="188" spans="1:46">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2674</v>
       </c>
@@ -29793,11 +29824,11 @@
       <c r="O188" t="s">
         <v>1395</v>
       </c>
-      <c r="S188">
-        <v>6.0</v>
+      <c r="S188" s="1">
+        <v>6</v>
       </c>
       <c r="T188">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U188" t="s">
         <v>973</v>
@@ -29839,7 +29870,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="189" spans="1:46">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2687</v>
       </c>
@@ -29870,11 +29901,11 @@
       <c r="O189" t="s">
         <v>1395</v>
       </c>
-      <c r="S189">
-        <v>6.0</v>
+      <c r="S189" s="1">
+        <v>6</v>
       </c>
       <c r="T189">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U189" t="s">
         <v>1923</v>
@@ -29916,7 +29947,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="190" spans="1:46">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2701</v>
       </c>
@@ -29947,11 +29978,11 @@
       <c r="O190" t="s">
         <v>2706</v>
       </c>
-      <c r="S190">
-        <v>6.0</v>
+      <c r="S190" s="1">
+        <v>6</v>
       </c>
       <c r="T190">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U190" t="s">
         <v>1017</v>
@@ -29993,7 +30024,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="191" spans="1:46">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2716</v>
       </c>
@@ -30024,11 +30055,11 @@
       <c r="O191" t="s">
         <v>1410</v>
       </c>
-      <c r="S191">
-        <v>6.0</v>
+      <c r="S191" s="1">
+        <v>6</v>
       </c>
       <c r="T191">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U191" t="s">
         <v>2721</v>
@@ -30070,7 +30101,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="192" spans="1:46">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2731</v>
       </c>
@@ -30101,11 +30132,11 @@
       <c r="O192" t="s">
         <v>1410</v>
       </c>
-      <c r="S192">
-        <v>6.0</v>
+      <c r="S192" s="1">
+        <v>6</v>
       </c>
       <c r="T192">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U192" t="s">
         <v>2735</v>
@@ -30147,7 +30178,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="193" spans="1:46">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2744</v>
       </c>
@@ -30178,11 +30209,11 @@
       <c r="O193" t="s">
         <v>1440</v>
       </c>
-      <c r="S193">
-        <v>6.0</v>
+      <c r="S193" s="1">
+        <v>6</v>
       </c>
       <c r="T193">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U193" t="s">
         <v>2735</v>
@@ -30224,7 +30255,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="194" spans="1:46">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2758</v>
       </c>
@@ -30255,11 +30286,11 @@
       <c r="O194" t="s">
         <v>1440</v>
       </c>
-      <c r="S194">
-        <v>6.0</v>
+      <c r="S194" s="1">
+        <v>6</v>
       </c>
       <c r="T194">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U194" t="s">
         <v>2665</v>
@@ -30301,7 +30332,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="195" spans="1:46">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2772</v>
       </c>
@@ -30332,11 +30363,11 @@
       <c r="O195" t="s">
         <v>2777</v>
       </c>
-      <c r="S195">
-        <v>6.0</v>
+      <c r="S195" s="1">
+        <v>6</v>
       </c>
       <c r="T195">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U195" t="s">
         <v>1498</v>
@@ -30378,7 +30409,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="196" spans="1:46">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2787</v>
       </c>
@@ -30409,11 +30440,11 @@
       <c r="O196" t="s">
         <v>1470</v>
       </c>
-      <c r="S196">
-        <v>6.0</v>
+      <c r="S196" s="1">
+        <v>6</v>
       </c>
       <c r="T196">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U196" t="s">
         <v>2791</v>
@@ -30455,7 +30486,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="197" spans="1:46">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2801</v>
       </c>
@@ -30486,11 +30517,11 @@
       <c r="O197" t="s">
         <v>1470</v>
       </c>
-      <c r="S197">
-        <v>6.0</v>
+      <c r="S197" s="1">
+        <v>6</v>
       </c>
       <c r="T197">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U197" t="s">
         <v>1379</v>
@@ -30532,7 +30563,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="198" spans="1:46">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2814</v>
       </c>
@@ -30563,11 +30594,11 @@
       <c r="O198" t="s">
         <v>1470</v>
       </c>
-      <c r="S198">
-        <v>6.0</v>
+      <c r="S198" s="1">
+        <v>6</v>
       </c>
       <c r="T198">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U198" t="s">
         <v>1104</v>
@@ -30609,7 +30640,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="199" spans="1:46">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2827</v>
       </c>
@@ -30640,11 +30671,11 @@
       <c r="O199" t="s">
         <v>2831</v>
       </c>
-      <c r="S199">
-        <v>6.0</v>
+      <c r="S199" s="1">
+        <v>6</v>
       </c>
       <c r="T199">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U199" t="s">
         <v>2832</v>
@@ -30686,7 +30717,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="200" spans="1:46">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2842</v>
       </c>
@@ -30717,11 +30748,11 @@
       <c r="O200" t="s">
         <v>2847</v>
       </c>
-      <c r="S200">
-        <v>6.0</v>
+      <c r="S200" s="1">
+        <v>6</v>
       </c>
       <c r="T200">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U200" t="s">
         <v>1017</v>
@@ -30763,7 +30794,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="201" spans="1:46">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2857</v>
       </c>
@@ -30794,11 +30825,11 @@
       <c r="O201" t="s">
         <v>2847</v>
       </c>
-      <c r="S201">
-        <v>6.0</v>
+      <c r="S201" s="1">
+        <v>6</v>
       </c>
       <c r="T201">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U201" t="s">
         <v>360</v>
@@ -30840,7 +30871,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="202" spans="1:46">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2869</v>
       </c>
@@ -30871,11 +30902,11 @@
       <c r="O202" t="s">
         <v>2874</v>
       </c>
-      <c r="S202">
-        <v>6.0</v>
+      <c r="S202" s="1">
+        <v>6</v>
       </c>
       <c r="T202">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U202" t="s">
         <v>1542</v>
@@ -30917,7 +30948,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="203" spans="1:46">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2884</v>
       </c>
@@ -30948,11 +30979,11 @@
       <c r="O203" t="s">
         <v>1557</v>
       </c>
-      <c r="S203">
-        <v>6.0</v>
+      <c r="S203" s="1">
+        <v>6</v>
       </c>
       <c r="T203">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U203" t="s">
         <v>142</v>
@@ -30994,7 +31025,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="204" spans="1:46">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2897</v>
       </c>
@@ -31025,11 +31056,11 @@
       <c r="O204" t="s">
         <v>1557</v>
       </c>
-      <c r="S204">
-        <v>6.0</v>
+      <c r="S204" s="1">
+        <v>6</v>
       </c>
       <c r="T204">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U204" t="s">
         <v>2902</v>
@@ -31071,7 +31102,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="205" spans="1:46">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2912</v>
       </c>
@@ -31102,11 +31133,11 @@
       <c r="O205" t="s">
         <v>2916</v>
       </c>
-      <c r="S205">
-        <v>6.0</v>
+      <c r="S205" s="1">
+        <v>6</v>
       </c>
       <c r="T205">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U205" t="s">
         <v>942</v>
@@ -31148,7 +31179,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="206" spans="1:46">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2926</v>
       </c>
@@ -31179,11 +31210,11 @@
       <c r="O206" t="s">
         <v>2916</v>
       </c>
-      <c r="S206">
-        <v>6.0</v>
+      <c r="S206" s="1">
+        <v>6</v>
       </c>
       <c r="T206">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U206" t="s">
         <v>2930</v>
@@ -31225,7 +31256,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="207" spans="1:46">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2939</v>
       </c>
@@ -31256,11 +31287,11 @@
       <c r="O207" t="s">
         <v>2916</v>
       </c>
-      <c r="S207">
-        <v>6.0</v>
+      <c r="S207" s="1">
+        <v>6</v>
       </c>
       <c r="T207">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U207" t="s">
         <v>1017</v>
@@ -31302,7 +31333,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="208" spans="1:46">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2952</v>
       </c>
@@ -31333,11 +31364,11 @@
       <c r="O208" t="s">
         <v>2956</v>
       </c>
-      <c r="S208">
-        <v>6.0</v>
+      <c r="S208" s="1">
+        <v>6</v>
       </c>
       <c r="T208">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U208" t="s">
         <v>234</v>
@@ -31379,7 +31410,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="209" spans="1:46">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2965</v>
       </c>
@@ -31410,11 +31441,11 @@
       <c r="O209" t="s">
         <v>2969</v>
       </c>
-      <c r="S209">
-        <v>6.0</v>
+      <c r="S209" s="1">
+        <v>6</v>
       </c>
       <c r="T209">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U209" t="s">
         <v>1017</v>
@@ -31456,7 +31487,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="210" spans="1:46">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2979</v>
       </c>
@@ -31487,11 +31518,11 @@
       <c r="O210" t="s">
         <v>2969</v>
       </c>
-      <c r="S210">
-        <v>6.0</v>
+      <c r="S210" s="1">
+        <v>6</v>
       </c>
       <c r="T210">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U210" t="s">
         <v>1017</v>
@@ -31533,7 +31564,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="211" spans="1:46">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2991</v>
       </c>
@@ -31564,11 +31595,11 @@
       <c r="O211" t="s">
         <v>2969</v>
       </c>
-      <c r="S211">
-        <v>6.0</v>
+      <c r="S211" s="1">
+        <v>6</v>
       </c>
       <c r="T211">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U211" t="s">
         <v>2996</v>
@@ -31610,7 +31641,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="212" spans="1:46">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>3006</v>
       </c>
@@ -31641,11 +31672,11 @@
       <c r="O212" t="s">
         <v>3011</v>
       </c>
-      <c r="S212">
-        <v>6.0</v>
+      <c r="S212" s="1">
+        <v>6</v>
       </c>
       <c r="T212">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U212" t="s">
         <v>3012</v>
@@ -31687,7 +31718,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="213" spans="1:46">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>3021</v>
       </c>
@@ -31718,11 +31749,11 @@
       <c r="O213" t="s">
         <v>3025</v>
       </c>
-      <c r="S213">
-        <v>6.0</v>
+      <c r="S213" s="1">
+        <v>6</v>
       </c>
       <c r="T213">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U213" t="s">
         <v>1017</v>
@@ -31764,7 +31795,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="214" spans="1:46">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>3034</v>
       </c>
@@ -31795,11 +31826,11 @@
       <c r="O214" t="s">
         <v>3025</v>
       </c>
-      <c r="S214">
-        <v>6.0</v>
+      <c r="S214" s="1">
+        <v>6</v>
       </c>
       <c r="T214">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U214" t="s">
         <v>3038</v>
@@ -31841,7 +31872,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="215" spans="1:46">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>3047</v>
       </c>
@@ -31872,11 +31903,11 @@
       <c r="O215" t="s">
         <v>3051</v>
       </c>
-      <c r="S215">
-        <v>6.0</v>
+      <c r="S215" s="1">
+        <v>6</v>
       </c>
       <c r="T215">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U215" t="s">
         <v>3052</v>
@@ -31918,7 +31949,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="216" spans="1:46">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>3061</v>
       </c>
@@ -31949,11 +31980,11 @@
       <c r="O216" t="s">
         <v>3065</v>
       </c>
-      <c r="S216">
-        <v>6.0</v>
+      <c r="S216" s="1">
+        <v>6</v>
       </c>
       <c r="T216">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U216" t="s">
         <v>3066</v>
@@ -31995,7 +32026,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="217" spans="1:46">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>3076</v>
       </c>
@@ -32026,11 +32057,11 @@
       <c r="O217" t="s">
         <v>3080</v>
       </c>
-      <c r="S217">
-        <v>6.0</v>
+      <c r="S217" s="1">
+        <v>6</v>
       </c>
       <c r="T217">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U217" t="s">
         <v>142</v>
@@ -32072,7 +32103,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="218" spans="1:46">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>3089</v>
       </c>
@@ -32103,11 +32134,11 @@
       <c r="O218" t="s">
         <v>3093</v>
       </c>
-      <c r="S218">
-        <v>6.0</v>
+      <c r="S218" s="1">
+        <v>6</v>
       </c>
       <c r="T218">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U218" t="s">
         <v>54</v>
@@ -32149,7 +32180,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="219" spans="1:46">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>3102</v>
       </c>
@@ -32180,11 +32211,11 @@
       <c r="O219" t="s">
         <v>3106</v>
       </c>
-      <c r="S219">
-        <v>6.0</v>
+      <c r="S219" s="1">
+        <v>6</v>
       </c>
       <c r="T219">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U219" t="s">
         <v>1601</v>
@@ -32226,7 +32257,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="220" spans="1:46">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>3116</v>
       </c>
@@ -32257,11 +32288,11 @@
       <c r="O220" t="s">
         <v>3121</v>
       </c>
-      <c r="S220">
-        <v>6.0</v>
+      <c r="S220" s="1">
+        <v>6</v>
       </c>
       <c r="T220">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U220" t="s">
         <v>73</v>
@@ -32303,7 +32334,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="221" spans="1:46">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>3131</v>
       </c>
@@ -32334,11 +32365,11 @@
       <c r="O221" t="s">
         <v>3135</v>
       </c>
-      <c r="S221">
-        <v>6.0</v>
+      <c r="S221" s="1">
+        <v>6</v>
       </c>
       <c r="T221">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U221" t="s">
         <v>438</v>
@@ -32380,7 +32411,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="222" spans="1:46">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>3145</v>
       </c>
@@ -32411,11 +32442,11 @@
       <c r="O222" t="s">
         <v>3149</v>
       </c>
-      <c r="S222">
-        <v>6.0</v>
+      <c r="S222" s="1">
+        <v>6</v>
       </c>
       <c r="T222">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U222" t="s">
         <v>3150</v>
@@ -32457,7 +32488,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="223" spans="1:46">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>3160</v>
       </c>
@@ -32488,11 +32519,11 @@
       <c r="O223" t="s">
         <v>3164</v>
       </c>
-      <c r="S223">
-        <v>6.0</v>
+      <c r="S223" s="1">
+        <v>6</v>
       </c>
       <c r="T223">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U223" t="s">
         <v>3165</v>
@@ -32534,7 +32565,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="224" spans="1:46">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>3175</v>
       </c>
@@ -32565,11 +32596,11 @@
       <c r="O224" t="s">
         <v>3179</v>
       </c>
-      <c r="S224">
-        <v>6.0</v>
+      <c r="S224" s="1">
+        <v>6</v>
       </c>
       <c r="T224">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U224" t="s">
         <v>1017</v>
@@ -32611,7 +32642,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="225" spans="1:46">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>3188</v>
       </c>
@@ -32642,11 +32673,11 @@
       <c r="O225" t="s">
         <v>3192</v>
       </c>
-      <c r="S225">
-        <v>6.0</v>
+      <c r="S225" s="1">
+        <v>6</v>
       </c>
       <c r="T225">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U225" t="s">
         <v>54</v>
@@ -32688,7 +32719,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="226" spans="1:46">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3201</v>
       </c>
@@ -32719,11 +32750,11 @@
       <c r="O226" t="s">
         <v>3205</v>
       </c>
-      <c r="S226">
-        <v>6.0</v>
+      <c r="S226" s="1">
+        <v>6</v>
       </c>
       <c r="T226">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U226" t="s">
         <v>2280</v>
@@ -32765,7 +32796,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="227" spans="1:46">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>3215</v>
       </c>
@@ -32796,11 +32827,11 @@
       <c r="O227" t="s">
         <v>3219</v>
       </c>
-      <c r="S227">
-        <v>6.0</v>
+      <c r="S227" s="1">
+        <v>6</v>
       </c>
       <c r="T227">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U227" t="s">
         <v>3220</v>
@@ -32842,7 +32873,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="228" spans="1:46">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>3230</v>
       </c>
@@ -32873,11 +32904,11 @@
       <c r="O228" t="s">
         <v>3234</v>
       </c>
-      <c r="S228">
-        <v>6.0</v>
+      <c r="S228" s="1">
+        <v>6</v>
       </c>
       <c r="T228">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U228" t="s">
         <v>1938</v>
@@ -32919,7 +32950,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="229" spans="1:46">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>3243</v>
       </c>
@@ -32950,11 +32981,11 @@
       <c r="O229" t="s">
         <v>3247</v>
       </c>
-      <c r="S229">
-        <v>6.0</v>
+      <c r="S229" s="1">
+        <v>6</v>
       </c>
       <c r="T229">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U229" t="s">
         <v>1104</v>
@@ -32996,7 +33027,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="230" spans="1:46">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>3256</v>
       </c>
@@ -33027,11 +33058,11 @@
       <c r="O230" t="s">
         <v>3260</v>
       </c>
-      <c r="S230">
-        <v>6.0</v>
+      <c r="S230" s="1">
+        <v>6</v>
       </c>
       <c r="T230">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U230" t="s">
         <v>3261</v>
@@ -33073,7 +33104,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="231" spans="1:46">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>3270</v>
       </c>
@@ -33104,11 +33135,11 @@
       <c r="O231" t="s">
         <v>3275</v>
       </c>
-      <c r="S231">
-        <v>6.0</v>
+      <c r="S231" s="1">
+        <v>6</v>
       </c>
       <c r="T231">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U231" t="s">
         <v>3276</v>
@@ -33150,7 +33181,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="232" spans="1:46">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>3286</v>
       </c>
@@ -33181,11 +33212,11 @@
       <c r="O232" t="s">
         <v>3290</v>
       </c>
-      <c r="S232">
-        <v>6.0</v>
+      <c r="S232" s="1">
+        <v>6</v>
       </c>
       <c r="T232">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U232" t="s">
         <v>3066</v>
@@ -33227,7 +33258,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="233" spans="1:46">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>3300</v>
       </c>
@@ -33258,11 +33289,11 @@
       <c r="O233" t="s">
         <v>3304</v>
       </c>
-      <c r="S233">
-        <v>6.0</v>
+      <c r="S233" s="1">
+        <v>6</v>
       </c>
       <c r="T233">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U233" t="s">
         <v>1167</v>
@@ -33304,7 +33335,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="234" spans="1:46">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>3314</v>
       </c>
@@ -33335,11 +33366,11 @@
       <c r="O234" t="s">
         <v>3318</v>
       </c>
-      <c r="S234">
-        <v>6.0</v>
+      <c r="S234" s="1">
+        <v>6</v>
       </c>
       <c r="T234">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U234" t="s">
         <v>2295</v>
@@ -33381,7 +33412,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="235" spans="1:46">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>3328</v>
       </c>
@@ -33412,11 +33443,11 @@
       <c r="O235" t="s">
         <v>3332</v>
       </c>
-      <c r="S235">
-        <v>6.0</v>
+      <c r="S235" s="1">
+        <v>6</v>
       </c>
       <c r="T235">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U235" t="s">
         <v>3333</v>
@@ -33458,7 +33489,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="236" spans="1:46">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>3343</v>
       </c>
@@ -33489,11 +33520,11 @@
       <c r="O236" t="s">
         <v>3347</v>
       </c>
-      <c r="S236">
-        <v>6.0</v>
+      <c r="S236" s="1">
+        <v>6</v>
       </c>
       <c r="T236">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U236" t="s">
         <v>2108</v>
@@ -33535,7 +33566,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="237" spans="1:46">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>3356</v>
       </c>
@@ -33566,11 +33597,11 @@
       <c r="O237" t="s">
         <v>3360</v>
       </c>
-      <c r="S237">
-        <v>6.0</v>
+      <c r="S237" s="1">
+        <v>6</v>
       </c>
       <c r="T237">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U237" t="s">
         <v>1002</v>
@@ -33612,7 +33643,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="238" spans="1:46">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>3369</v>
       </c>
@@ -33643,11 +33674,11 @@
       <c r="O238" t="s">
         <v>3373</v>
       </c>
-      <c r="S238">
-        <v>6.0</v>
+      <c r="S238" s="1">
+        <v>6</v>
       </c>
       <c r="T238">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U238" t="s">
         <v>2080</v>
@@ -33689,7 +33720,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="239" spans="1:46">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>3383</v>
       </c>
@@ -33720,11 +33751,11 @@
       <c r="O239" t="s">
         <v>3387</v>
       </c>
-      <c r="S239">
-        <v>6.0</v>
+      <c r="S239" s="1">
+        <v>6</v>
       </c>
       <c r="T239">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U239" t="s">
         <v>2323</v>
@@ -33766,7 +33797,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="240" spans="1:46">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>3397</v>
       </c>
@@ -33797,11 +33828,11 @@
       <c r="O240" t="s">
         <v>3401</v>
       </c>
-      <c r="S240">
-        <v>6.0</v>
+      <c r="S240" s="1">
+        <v>6</v>
       </c>
       <c r="T240">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U240" t="s">
         <v>2024</v>
@@ -33843,7 +33874,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="241" spans="1:46">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>3410</v>
       </c>
@@ -33874,11 +33905,11 @@
       <c r="O241" t="s">
         <v>3414</v>
       </c>
-      <c r="S241">
-        <v>6.0</v>
+      <c r="S241" s="1">
+        <v>6</v>
       </c>
       <c r="T241">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U241" t="s">
         <v>1119</v>
@@ -33920,7 +33951,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="242" spans="1:46">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3423</v>
       </c>
@@ -33951,11 +33982,11 @@
       <c r="O242" t="s">
         <v>1118</v>
       </c>
-      <c r="S242">
-        <v>6.0</v>
+      <c r="S242" s="1">
+        <v>6</v>
       </c>
       <c r="T242">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U242" t="s">
         <v>1119</v>
@@ -33997,7 +34028,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="243" spans="1:46">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3435</v>
       </c>
@@ -34028,11 +34059,11 @@
       <c r="O243" t="s">
         <v>3439</v>
       </c>
-      <c r="S243">
-        <v>6.0</v>
+      <c r="S243" s="1">
+        <v>6</v>
       </c>
       <c r="T243">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U243" t="s">
         <v>2295</v>
@@ -34074,7 +34105,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="244" spans="1:46">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>3448</v>
       </c>
@@ -34105,11 +34136,11 @@
       <c r="O244" t="s">
         <v>3452</v>
       </c>
-      <c r="S244">
-        <v>6.0</v>
+      <c r="S244" s="1">
+        <v>6</v>
       </c>
       <c r="T244">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U244" t="s">
         <v>3453</v>
@@ -34151,7 +34182,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="245" spans="1:46">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>3462</v>
       </c>
@@ -34182,11 +34213,11 @@
       <c r="O245" t="s">
         <v>3452</v>
       </c>
-      <c r="S245">
-        <v>6.0</v>
+      <c r="S245" s="1">
+        <v>6</v>
       </c>
       <c r="T245">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U245" t="s">
         <v>3466</v>
@@ -34228,7 +34259,7 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="246" spans="1:46">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>3475</v>
       </c>
@@ -34259,11 +34290,11 @@
       <c r="O246" t="s">
         <v>3479</v>
       </c>
-      <c r="S246">
-        <v>6.0</v>
+      <c r="S246" s="1">
+        <v>6</v>
       </c>
       <c r="T246">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U246" t="s">
         <v>3480</v>
@@ -34305,7 +34336,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="247" spans="1:46">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>3490</v>
       </c>
@@ -34336,11 +34367,11 @@
       <c r="O247" t="s">
         <v>3495</v>
       </c>
-      <c r="S247">
-        <v>6.0</v>
+      <c r="S247" s="1">
+        <v>6</v>
       </c>
       <c r="T247">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U247" t="s">
         <v>3496</v>
@@ -34382,7 +34413,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="248" spans="1:46">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>3506</v>
       </c>
@@ -34413,11 +34444,11 @@
       <c r="O248" t="s">
         <v>3510</v>
       </c>
-      <c r="S248">
-        <v>6.0</v>
+      <c r="S248" s="1">
+        <v>6</v>
       </c>
       <c r="T248">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U248" t="s">
         <v>3511</v>
@@ -34459,7 +34490,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="249" spans="1:46">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>3520</v>
       </c>
@@ -34490,11 +34521,11 @@
       <c r="O249" t="s">
         <v>3525</v>
       </c>
-      <c r="S249">
-        <v>6.0</v>
+      <c r="S249" s="1">
+        <v>6</v>
       </c>
       <c r="T249">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U249" t="s">
         <v>2665</v>
@@ -34536,7 +34567,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="250" spans="1:46">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>3535</v>
       </c>
@@ -34567,11 +34598,11 @@
       <c r="O250" t="s">
         <v>3540</v>
       </c>
-      <c r="S250">
-        <v>6.0</v>
+      <c r="S250" s="1">
+        <v>6</v>
       </c>
       <c r="T250">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U250" t="s">
         <v>1002</v>
@@ -34613,7 +34644,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="251" spans="1:46">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>3549</v>
       </c>
@@ -34644,11 +34675,11 @@
       <c r="O251" t="s">
         <v>3553</v>
       </c>
-      <c r="S251">
-        <v>6.0</v>
+      <c r="S251" s="1">
+        <v>6</v>
       </c>
       <c r="T251">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U251" t="s">
         <v>3052</v>
@@ -34690,7 +34721,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="252" spans="1:46">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>3563</v>
       </c>
@@ -34721,11 +34752,11 @@
       <c r="O252" t="s">
         <v>2831</v>
       </c>
-      <c r="S252">
-        <v>6.0</v>
+      <c r="S252" s="1">
+        <v>6</v>
       </c>
       <c r="T252">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U252" t="s">
         <v>3567</v>
@@ -34767,7 +34798,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="253" spans="1:46">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>3577</v>
       </c>
@@ -34798,11 +34829,11 @@
       <c r="O253" t="s">
         <v>2874</v>
       </c>
-      <c r="S253">
-        <v>6.0</v>
+      <c r="S253" s="1">
+        <v>6</v>
       </c>
       <c r="T253">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U253" t="s">
         <v>3582</v>
@@ -34844,7 +34875,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="254" spans="1:46">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3591</v>
       </c>
@@ -34875,11 +34906,11 @@
       <c r="O254" t="s">
         <v>1410</v>
       </c>
-      <c r="S254">
-        <v>6.0</v>
+      <c r="S254" s="1">
+        <v>6</v>
       </c>
       <c r="T254">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U254" t="s">
         <v>1074</v>
@@ -34921,7 +34952,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="255" spans="1:46">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>3604</v>
       </c>
@@ -34952,11 +34983,11 @@
       <c r="O255" t="s">
         <v>1410</v>
       </c>
-      <c r="S255">
-        <v>6.0</v>
+      <c r="S255" s="1">
+        <v>6</v>
       </c>
       <c r="T255">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U255" t="s">
         <v>3480</v>
@@ -34998,7 +35029,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="256" spans="1:46">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>3617</v>
       </c>
@@ -35029,11 +35060,11 @@
       <c r="O256" t="s">
         <v>1425</v>
       </c>
-      <c r="S256">
-        <v>6.0</v>
+      <c r="S256" s="1">
+        <v>6</v>
       </c>
       <c r="T256">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U256" t="s">
         <v>423</v>
@@ -35075,7 +35106,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="257" spans="1:46">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>3631</v>
       </c>
@@ -35106,11 +35137,11 @@
       <c r="O257" t="s">
         <v>1440</v>
       </c>
-      <c r="S257">
-        <v>6.0</v>
+      <c r="S257" s="1">
+        <v>6</v>
       </c>
       <c r="T257">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U257" t="s">
         <v>973</v>
@@ -35152,7 +35183,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="258" spans="1:46">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>3645</v>
       </c>
@@ -35183,11 +35214,11 @@
       <c r="O258" t="s">
         <v>3650</v>
       </c>
-      <c r="S258">
-        <v>6.0</v>
+      <c r="S258" s="1">
+        <v>6</v>
       </c>
       <c r="T258">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U258" t="s">
         <v>438</v>
@@ -35229,7 +35260,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="259" spans="1:46">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>3660</v>
       </c>
@@ -35260,11 +35291,11 @@
       <c r="O259" t="s">
         <v>3664</v>
       </c>
-      <c r="S259">
-        <v>6.0</v>
+      <c r="S259" s="1">
+        <v>6</v>
       </c>
       <c r="T259">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U259" t="s">
         <v>3665</v>
@@ -35306,7 +35337,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="260" spans="1:46">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>3674</v>
       </c>
@@ -35337,11 +35368,11 @@
       <c r="O260" t="s">
         <v>3678</v>
       </c>
-      <c r="S260">
-        <v>6.0</v>
+      <c r="S260" s="1">
+        <v>6</v>
       </c>
       <c r="T260">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U260" t="s">
         <v>54</v>
@@ -35383,7 +35414,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="261" spans="1:46">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>3687</v>
       </c>
@@ -35414,11 +35445,11 @@
       <c r="O261" t="s">
         <v>957</v>
       </c>
-      <c r="S261">
-        <v>6.0</v>
+      <c r="S261" s="1">
+        <v>6</v>
       </c>
       <c r="T261">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U261" t="s">
         <v>958</v>
@@ -35460,7 +35491,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="262" spans="1:46">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>3698</v>
       </c>
@@ -35491,11 +35522,11 @@
       <c r="O262" t="s">
         <v>3702</v>
       </c>
-      <c r="S262">
-        <v>6.0</v>
+      <c r="S262" s="1">
+        <v>6</v>
       </c>
       <c r="T262">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U262" t="s">
         <v>3453</v>
@@ -35537,7 +35568,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="263" spans="1:46">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>3712</v>
       </c>
@@ -35568,11 +35599,11 @@
       <c r="O263" t="s">
         <v>3716</v>
       </c>
-      <c r="S263">
-        <v>6.0</v>
+      <c r="S263" s="1">
+        <v>6</v>
       </c>
       <c r="T263">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U263" t="s">
         <v>2665</v>
@@ -35614,7 +35645,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="264" spans="1:46">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3725</v>
       </c>
@@ -35645,11 +35676,11 @@
       <c r="O264" t="s">
         <v>3729</v>
       </c>
-      <c r="S264">
-        <v>6.0</v>
+      <c r="S264" s="1">
+        <v>6</v>
       </c>
       <c r="T264">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U264" t="s">
         <v>3480</v>
@@ -35691,7 +35722,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="265" spans="1:46">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>3738</v>
       </c>
@@ -35722,11 +35753,11 @@
       <c r="O265" t="s">
         <v>1001</v>
       </c>
-      <c r="S265">
-        <v>6.0</v>
+      <c r="S265" s="1">
+        <v>6</v>
       </c>
       <c r="T265">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U265" t="s">
         <v>1002</v>
@@ -35768,7 +35799,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="266" spans="1:46">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>3749</v>
       </c>
@@ -35799,11 +35830,11 @@
       <c r="O266" t="s">
         <v>1016</v>
       </c>
-      <c r="S266">
-        <v>6.0</v>
+      <c r="S266" s="1">
+        <v>6</v>
       </c>
       <c r="T266">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U266" t="s">
         <v>423</v>
@@ -35845,7 +35876,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="267" spans="1:46">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3761</v>
       </c>
@@ -35876,11 +35907,11 @@
       <c r="O267" t="s">
         <v>3765</v>
       </c>
-      <c r="S267">
-        <v>6.0</v>
+      <c r="S267" s="1">
+        <v>6</v>
       </c>
       <c r="T267">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U267" t="s">
         <v>2637</v>
@@ -35922,7 +35953,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="268" spans="1:46">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>3775</v>
       </c>
@@ -35953,11 +35984,11 @@
       <c r="O268" t="s">
         <v>3765</v>
       </c>
-      <c r="S268">
-        <v>6.0</v>
+      <c r="S268" s="1">
+        <v>6</v>
       </c>
       <c r="T268">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U268" t="s">
         <v>3779</v>
@@ -35999,7 +36030,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="269" spans="1:46">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>3788</v>
       </c>
@@ -36030,11 +36061,11 @@
       <c r="O269" t="s">
         <v>3792</v>
       </c>
-      <c r="S269">
-        <v>6.0</v>
+      <c r="S269" s="1">
+        <v>6</v>
       </c>
       <c r="T269">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U269" t="s">
         <v>2108</v>
@@ -36076,7 +36107,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="270" spans="1:46">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>3802</v>
       </c>
@@ -36107,11 +36138,11 @@
       <c r="O270" t="s">
         <v>3806</v>
       </c>
-      <c r="S270">
-        <v>6.0</v>
+      <c r="S270" s="1">
+        <v>6</v>
       </c>
       <c r="T270">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U270" t="s">
         <v>3807</v>
@@ -36153,7 +36184,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="271" spans="1:46">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>3816</v>
       </c>
@@ -36184,11 +36215,11 @@
       <c r="O271" t="s">
         <v>3820</v>
       </c>
-      <c r="S271">
-        <v>6.0</v>
+      <c r="S271" s="1">
+        <v>6</v>
       </c>
       <c r="T271">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U271" t="s">
         <v>3333</v>
@@ -36230,7 +36261,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="272" spans="1:46">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>3830</v>
       </c>
@@ -36261,11 +36292,11 @@
       <c r="O272" t="s">
         <v>3834</v>
       </c>
-      <c r="S272">
-        <v>6.0</v>
+      <c r="S272" s="1">
+        <v>6</v>
       </c>
       <c r="T272">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U272" t="s">
         <v>2392</v>
@@ -36307,7 +36338,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="273" spans="1:46">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>3844</v>
       </c>
@@ -36338,11 +36369,11 @@
       <c r="O273" t="s">
         <v>3848</v>
       </c>
-      <c r="S273">
-        <v>6.0</v>
+      <c r="S273" s="1">
+        <v>6</v>
       </c>
       <c r="T273">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U273" t="s">
         <v>3466</v>
@@ -36384,7 +36415,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="274" spans="1:46">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>3857</v>
       </c>
@@ -36415,11 +36446,11 @@
       <c r="O274" t="s">
         <v>3861</v>
       </c>
-      <c r="S274">
-        <v>6.0</v>
+      <c r="S274" s="1">
+        <v>6</v>
       </c>
       <c r="T274">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U274" t="s">
         <v>3466</v>
@@ -36461,7 +36492,7 @@
         <v>3869</v>
       </c>
     </row>
-    <row r="275" spans="1:46">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>3870</v>
       </c>
@@ -36492,11 +36523,11 @@
       <c r="O275" t="s">
         <v>3874</v>
       </c>
-      <c r="S275">
-        <v>6.0</v>
+      <c r="S275" s="1">
+        <v>6</v>
       </c>
       <c r="T275">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U275" t="s">
         <v>2024</v>
@@ -36538,7 +36569,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="276" spans="1:46">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>3884</v>
       </c>
@@ -36569,11 +36600,11 @@
       <c r="O276" t="s">
         <v>3888</v>
       </c>
-      <c r="S276">
-        <v>6.0</v>
+      <c r="S276" s="1">
+        <v>6</v>
       </c>
       <c r="T276">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U276" t="s">
         <v>2080</v>
@@ -36615,7 +36646,7 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="277" spans="1:46">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>3897</v>
       </c>
@@ -36646,11 +36677,11 @@
       <c r="O277" t="s">
         <v>3901</v>
       </c>
-      <c r="S277">
-        <v>6.0</v>
+      <c r="S277" s="1">
+        <v>6</v>
       </c>
       <c r="T277">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U277" t="s">
         <v>3902</v>
@@ -36692,7 +36723,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="278" spans="1:46">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3911</v>
       </c>
@@ -36723,11 +36754,11 @@
       <c r="O278" t="s">
         <v>3915</v>
       </c>
-      <c r="S278">
-        <v>6.0</v>
+      <c r="S278" s="1">
+        <v>6</v>
       </c>
       <c r="T278">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U278" t="s">
         <v>1498</v>
@@ -36769,7 +36800,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="279" spans="1:46">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>3924</v>
       </c>
@@ -36800,11 +36831,11 @@
       <c r="O279" t="s">
         <v>3928</v>
       </c>
-      <c r="S279">
-        <v>6.0</v>
+      <c r="S279" s="1">
+        <v>6</v>
       </c>
       <c r="T279">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U279" t="s">
         <v>423</v>
@@ -36846,7 +36877,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="280" spans="1:46">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>3938</v>
       </c>
@@ -36877,11 +36908,11 @@
       <c r="O280" t="s">
         <v>3942</v>
       </c>
-      <c r="S280">
-        <v>6.0</v>
+      <c r="S280" s="1">
+        <v>6</v>
       </c>
       <c r="T280">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U280" t="s">
         <v>89</v>
@@ -36923,7 +36954,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="281" spans="1:46">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>3951</v>
       </c>
@@ -36954,11 +36985,11 @@
       <c r="O281" t="s">
         <v>1410</v>
       </c>
-      <c r="S281">
-        <v>6.0</v>
+      <c r="S281" s="1">
+        <v>6</v>
       </c>
       <c r="T281">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U281" t="s">
         <v>438</v>
@@ -37000,7 +37031,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="282" spans="1:46">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3965</v>
       </c>
@@ -37031,11 +37062,11 @@
       <c r="O282" t="s">
         <v>1410</v>
       </c>
-      <c r="S282">
-        <v>6.0</v>
+      <c r="S282" s="1">
+        <v>6</v>
       </c>
       <c r="T282">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U282" t="s">
         <v>302</v>
@@ -37077,7 +37108,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="283" spans="1:46">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>3976</v>
       </c>
@@ -37108,11 +37139,11 @@
       <c r="O283" t="s">
         <v>3983</v>
       </c>
-      <c r="S283">
-        <v>6.0</v>
+      <c r="S283" s="1">
+        <v>6</v>
       </c>
       <c r="T283">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U283" t="s">
         <v>323</v>
@@ -37154,7 +37185,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="284" spans="1:46">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>3992</v>
       </c>
@@ -37185,11 +37216,11 @@
       <c r="O284" t="s">
         <v>3998</v>
       </c>
-      <c r="S284">
-        <v>6.0</v>
+      <c r="S284" s="1">
+        <v>6</v>
       </c>
       <c r="T284">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U284" t="s">
         <v>3999</v>
@@ -37231,7 +37262,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="285" spans="1:46">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>4009</v>
       </c>
@@ -37262,11 +37293,11 @@
       <c r="O285" t="s">
         <v>4015</v>
       </c>
-      <c r="S285">
-        <v>6.0</v>
+      <c r="S285" s="1">
+        <v>6</v>
       </c>
       <c r="T285">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U285" t="s">
         <v>4016</v>
@@ -37308,7 +37339,7 @@
         <v>4025</v>
       </c>
     </row>
-    <row r="286" spans="1:46">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>4026</v>
       </c>
@@ -37339,11 +37370,11 @@
       <c r="O286" t="s">
         <v>4032</v>
       </c>
-      <c r="S286">
-        <v>6.0</v>
+      <c r="S286" s="1">
+        <v>6</v>
       </c>
       <c r="T286">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U286" t="s">
         <v>4033</v>
@@ -37385,7 +37416,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="287" spans="1:46">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>4042</v>
       </c>
@@ -37416,11 +37447,11 @@
       <c r="O287" t="s">
         <v>4048</v>
       </c>
-      <c r="S287">
-        <v>6.0</v>
+      <c r="S287" s="1">
+        <v>6</v>
       </c>
       <c r="T287">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U287" t="s">
         <v>2665</v>
@@ -37462,7 +37493,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="288" spans="1:46">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>4058</v>
       </c>
@@ -37493,11 +37524,11 @@
       <c r="O288" t="s">
         <v>4064</v>
       </c>
-      <c r="S288">
-        <v>6.0</v>
+      <c r="S288" s="1">
+        <v>6</v>
       </c>
       <c r="T288">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U288" t="s">
         <v>54</v>
@@ -37539,7 +37570,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="289" spans="1:46">
+    <row r="289" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>4074</v>
       </c>
@@ -37570,11 +37601,11 @@
       <c r="O289" t="s">
         <v>4080</v>
       </c>
-      <c r="S289">
-        <v>6.0</v>
+      <c r="S289" s="1">
+        <v>6</v>
       </c>
       <c r="T289">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U289" t="s">
         <v>393</v>
@@ -37616,7 +37647,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="290" spans="1:46">
+    <row r="290" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>4090</v>
       </c>
@@ -37647,11 +37678,11 @@
       <c r="O290" t="s">
         <v>4095</v>
       </c>
-      <c r="S290">
-        <v>6.0</v>
+      <c r="S290" s="1">
+        <v>6</v>
       </c>
       <c r="T290">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U290" t="s">
         <v>54</v>
@@ -37693,7 +37724,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="291" spans="1:46">
+    <row r="291" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4105</v>
       </c>
@@ -37724,11 +37755,11 @@
       <c r="O291" t="s">
         <v>3983</v>
       </c>
-      <c r="S291">
-        <v>6.0</v>
+      <c r="S291" s="1">
+        <v>6</v>
       </c>
       <c r="T291">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U291" t="s">
         <v>323</v>
@@ -37779,7 +37810,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="292" spans="1:46">
+    <row r="292" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>4121</v>
       </c>
@@ -37810,11 +37841,11 @@
       <c r="O292" t="s">
         <v>3998</v>
       </c>
-      <c r="S292">
-        <v>6.0</v>
+      <c r="S292" s="1">
+        <v>6</v>
       </c>
       <c r="T292">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U292" t="s">
         <v>3999</v>
@@ -37865,7 +37896,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="293" spans="1:46">
+    <row r="293" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>4136</v>
       </c>
@@ -37896,11 +37927,11 @@
       <c r="O293" t="s">
         <v>4142</v>
       </c>
-      <c r="S293">
-        <v>6.0</v>
+      <c r="S293" s="1">
+        <v>6</v>
       </c>
       <c r="T293">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U293" t="s">
         <v>2832</v>
@@ -37942,7 +37973,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="294" spans="1:46">
+    <row r="294" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>4152</v>
       </c>
@@ -37973,11 +38004,11 @@
       <c r="O294" t="s">
         <v>4157</v>
       </c>
-      <c r="S294">
-        <v>6.0</v>
+      <c r="S294" s="1">
+        <v>6</v>
       </c>
       <c r="T294">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U294" t="s">
         <v>2622</v>
@@ -38028,7 +38059,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="295" spans="1:46">
+    <row r="295" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>4169</v>
       </c>
@@ -38059,11 +38090,11 @@
       <c r="O295" t="s">
         <v>4174</v>
       </c>
-      <c r="S295">
-        <v>6.0</v>
+      <c r="S295" s="1">
+        <v>6</v>
       </c>
       <c r="T295">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U295" t="s">
         <v>234</v>
@@ -38105,7 +38136,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="296" spans="1:46">
+    <row r="296" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>4183</v>
       </c>
@@ -38136,11 +38167,11 @@
       <c r="O296" t="s">
         <v>4189</v>
       </c>
-      <c r="S296">
-        <v>6.0</v>
+      <c r="S296" s="1">
+        <v>6</v>
       </c>
       <c r="T296">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U296" t="s">
         <v>54</v>
@@ -38182,7 +38213,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="297" spans="1:46">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4198</v>
       </c>
@@ -38213,11 +38244,11 @@
       <c r="O297" t="s">
         <v>4203</v>
       </c>
-      <c r="S297">
-        <v>6.0</v>
+      <c r="S297" s="1">
+        <v>6</v>
       </c>
       <c r="T297">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U297" t="s">
         <v>54</v>
@@ -38259,7 +38290,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="298" spans="1:46">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4213</v>
       </c>
@@ -38290,11 +38321,11 @@
       <c r="O298" t="s">
         <v>726</v>
       </c>
-      <c r="S298">
-        <v>6.0</v>
+      <c r="S298" s="1">
+        <v>6</v>
       </c>
       <c r="T298">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U298" t="s">
         <v>54</v>
@@ -38345,7 +38376,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="299" spans="1:46">
+    <row r="299" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4230</v>
       </c>
@@ -38376,11 +38407,11 @@
       <c r="O299" t="s">
         <v>4235</v>
       </c>
-      <c r="S299">
-        <v>6.0</v>
+      <c r="S299" s="1">
+        <v>6</v>
       </c>
       <c r="T299">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U299" t="s">
         <v>3511</v>
@@ -38422,7 +38453,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="300" spans="1:46">
+    <row r="300" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4245</v>
       </c>
@@ -38453,11 +38484,11 @@
       <c r="O300" t="s">
         <v>4095</v>
       </c>
-      <c r="S300">
-        <v>6.0</v>
+      <c r="S300" s="1">
+        <v>6</v>
       </c>
       <c r="T300">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U300" t="s">
         <v>54</v>
@@ -38499,7 +38530,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="301" spans="1:46">
+    <row r="301" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>4258</v>
       </c>
@@ -38533,11 +38564,11 @@
       <c r="R301" t="s">
         <v>4265</v>
       </c>
-      <c r="S301">
-        <v>6.0</v>
+      <c r="S301" s="1">
+        <v>6</v>
       </c>
       <c r="T301">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U301" t="s">
         <v>54</v>
@@ -38579,7 +38610,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="302" spans="1:46">
+    <row r="302" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>4274</v>
       </c>
@@ -38613,11 +38644,11 @@
       <c r="R302" t="s">
         <v>4281</v>
       </c>
-      <c r="S302">
-        <v>6.0</v>
+      <c r="S302" s="1">
+        <v>6</v>
       </c>
       <c r="T302">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U302" t="s">
         <v>4282</v>
@@ -38659,7 +38690,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="303" spans="1:46">
+    <row r="303" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>4291</v>
       </c>
@@ -38693,11 +38724,11 @@
       <c r="R303" t="s">
         <v>4297</v>
       </c>
-      <c r="S303">
-        <v>6.0</v>
+      <c r="S303" s="1">
+        <v>6</v>
       </c>
       <c r="T303">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U303" t="s">
         <v>4298</v>
@@ -38739,7 +38770,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="304" spans="1:46">
+    <row r="304" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>4308</v>
       </c>
@@ -38773,11 +38804,11 @@
       <c r="R304" t="s">
         <v>4314</v>
       </c>
-      <c r="S304">
-        <v>6.0</v>
+      <c r="S304" s="1">
+        <v>6</v>
       </c>
       <c r="T304">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U304" t="s">
         <v>3220</v>
@@ -38819,7 +38850,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="305" spans="1:46">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>4323</v>
       </c>
@@ -38853,11 +38884,11 @@
       <c r="R305" t="s">
         <v>4329</v>
       </c>
-      <c r="S305">
-        <v>6.0</v>
+      <c r="S305" s="1">
+        <v>6</v>
       </c>
       <c r="T305">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U305" t="s">
         <v>3333</v>
@@ -38899,7 +38930,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="306" spans="1:46">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>4338</v>
       </c>
@@ -38933,11 +38964,11 @@
       <c r="R306" t="s">
         <v>4345</v>
       </c>
-      <c r="S306">
-        <v>6.0</v>
+      <c r="S306" s="1">
+        <v>6</v>
       </c>
       <c r="T306">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U306" t="s">
         <v>1938</v>
@@ -38979,7 +39010,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="307" spans="1:46">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>4355</v>
       </c>
@@ -39013,11 +39044,11 @@
       <c r="R307" t="s">
         <v>4359</v>
       </c>
-      <c r="S307">
-        <v>6.0</v>
+      <c r="S307" s="1">
+        <v>6</v>
       </c>
       <c r="T307">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U307" t="s">
         <v>3999</v>
@@ -39059,7 +39090,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="308" spans="1:46">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>4368</v>
       </c>
@@ -39093,11 +39124,11 @@
       <c r="R308" t="s">
         <v>4375</v>
       </c>
-      <c r="S308">
-        <v>6.0</v>
+      <c r="S308" s="1">
+        <v>6</v>
       </c>
       <c r="T308">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U308" t="s">
         <v>958</v>
@@ -39139,7 +39170,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="309" spans="1:46">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>4384</v>
       </c>
@@ -39173,11 +39204,11 @@
       <c r="R309" t="s">
         <v>4391</v>
       </c>
-      <c r="S309">
-        <v>6.0</v>
+      <c r="S309" s="1">
+        <v>6</v>
       </c>
       <c r="T309">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U309" t="s">
         <v>323</v>
@@ -39219,7 +39250,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="310" spans="1:46">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>4400</v>
       </c>
@@ -39253,11 +39284,11 @@
       <c r="R310" t="s">
         <v>4406</v>
       </c>
-      <c r="S310">
-        <v>6.0</v>
+      <c r="S310" s="1">
+        <v>6</v>
       </c>
       <c r="T310">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U310" t="s">
         <v>54</v>
@@ -39299,7 +39330,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="311" spans="1:46">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>4415</v>
       </c>
@@ -39333,11 +39364,11 @@
       <c r="R311" t="s">
         <v>4422</v>
       </c>
-      <c r="S311">
-        <v>6.0</v>
+      <c r="S311" s="1">
+        <v>6</v>
       </c>
       <c r="T311">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U311" t="s">
         <v>4423</v>
@@ -39379,7 +39410,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="312" spans="1:46">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4432</v>
       </c>
@@ -39413,11 +39444,11 @@
       <c r="R312" t="s">
         <v>4436</v>
       </c>
-      <c r="S312">
-        <v>6.0</v>
+      <c r="S312" s="1">
+        <v>6</v>
       </c>
       <c r="T312">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U312" t="s">
         <v>2665</v>
@@ -39459,7 +39490,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="313" spans="1:46">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>4445</v>
       </c>
@@ -39493,11 +39524,11 @@
       <c r="R313" t="s">
         <v>4451</v>
       </c>
-      <c r="S313">
-        <v>6.0</v>
+      <c r="S313" s="1">
+        <v>6</v>
       </c>
       <c r="T313">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U313" t="s">
         <v>4452</v>
@@ -39539,7 +39570,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="314" spans="1:46">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>4461</v>
       </c>
@@ -39573,11 +39604,11 @@
       <c r="R314" t="s">
         <v>4467</v>
       </c>
-      <c r="S314">
-        <v>6.0</v>
+      <c r="S314" s="1">
+        <v>6</v>
       </c>
       <c r="T314">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U314" t="s">
         <v>438</v>
@@ -39619,7 +39650,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="315" spans="1:46">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4477</v>
       </c>
@@ -39662,11 +39693,11 @@
       <c r="O315" t="s">
         <v>745</v>
       </c>
-      <c r="S315">
-        <v>6.0</v>
+      <c r="S315" s="1">
+        <v>6</v>
       </c>
       <c r="T315">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U315" t="s">
         <v>4481</v>
@@ -39720,7 +39751,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="316" spans="1:46">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4489</v>
       </c>
@@ -39763,11 +39794,11 @@
       <c r="O316" t="s">
         <v>745</v>
       </c>
-      <c r="S316">
-        <v>6.0</v>
+      <c r="S316" s="1">
+        <v>6</v>
       </c>
       <c r="T316">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U316" t="s">
         <v>4481</v>
@@ -39821,7 +39852,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="317" spans="1:46">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4500</v>
       </c>
@@ -39864,11 +39895,11 @@
       <c r="O317" t="s">
         <v>745</v>
       </c>
-      <c r="S317">
-        <v>6.0</v>
+      <c r="S317" s="1">
+        <v>6</v>
       </c>
       <c r="T317">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U317" t="s">
         <v>4504</v>
@@ -39922,7 +39953,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="318" spans="1:46">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4512</v>
       </c>
@@ -39965,11 +39996,11 @@
       <c r="O318" t="s">
         <v>745</v>
       </c>
-      <c r="S318">
-        <v>6.0</v>
+      <c r="S318" s="1">
+        <v>6</v>
       </c>
       <c r="T318">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U318" t="s">
         <v>4516</v>
@@ -40023,7 +40054,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="319" spans="1:46">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>4524</v>
       </c>
@@ -40066,11 +40097,11 @@
       <c r="O319" t="s">
         <v>745</v>
       </c>
-      <c r="S319">
-        <v>6.0</v>
+      <c r="S319" s="1">
+        <v>6</v>
       </c>
       <c r="T319">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U319" t="s">
         <v>4528</v>
@@ -40124,7 +40155,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="320" spans="1:46">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>4536</v>
       </c>
@@ -40155,11 +40186,11 @@
       <c r="O320" t="s">
         <v>4542</v>
       </c>
-      <c r="S320">
-        <v>6.0</v>
+      <c r="S320" s="1">
+        <v>6</v>
       </c>
       <c r="T320">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U320" t="s">
         <v>4543</v>
@@ -40201,7 +40232,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="321" spans="1:46">
+    <row r="321" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>4552</v>
       </c>
@@ -40232,11 +40263,11 @@
       <c r="O321" t="s">
         <v>3998</v>
       </c>
-      <c r="S321">
-        <v>6.0</v>
+      <c r="S321" s="1">
+        <v>6</v>
       </c>
       <c r="T321">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U321" t="s">
         <v>3999</v>
@@ -40278,7 +40309,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="322" spans="1:46">
+    <row r="322" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>4564</v>
       </c>
@@ -40309,11 +40340,11 @@
       <c r="O322" t="s">
         <v>4032</v>
       </c>
-      <c r="S322">
-        <v>6.0</v>
+      <c r="S322" s="1">
+        <v>6</v>
       </c>
       <c r="T322">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U322" t="s">
         <v>4033</v>
@@ -40355,7 +40386,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="323" spans="1:46">
+    <row r="323" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>4576</v>
       </c>
@@ -40386,11 +40417,11 @@
       <c r="O323" t="s">
         <v>4142</v>
       </c>
-      <c r="S323">
-        <v>6.0</v>
+      <c r="S323" s="1">
+        <v>6</v>
       </c>
       <c r="T323">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U323" t="s">
         <v>2832</v>
@@ -40432,7 +40463,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="324" spans="1:46">
+    <row r="324" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>4588</v>
       </c>
@@ -40463,11 +40494,11 @@
       <c r="O324" t="s">
         <v>4203</v>
       </c>
-      <c r="S324">
-        <v>6.0</v>
+      <c r="S324" s="1">
+        <v>6</v>
       </c>
       <c r="T324">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U324" t="s">
         <v>54</v>
@@ -40509,7 +40540,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="325" spans="1:46">
+    <row r="325" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>4600</v>
       </c>
@@ -40540,11 +40571,11 @@
       <c r="O325" t="s">
         <v>4080</v>
       </c>
-      <c r="S325">
-        <v>6.0</v>
+      <c r="S325" s="1">
+        <v>6</v>
       </c>
       <c r="T325">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U325" t="s">
         <v>393</v>
@@ -40586,7 +40617,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="326" spans="1:46">
+    <row r="326" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>4612</v>
       </c>
@@ -40617,11 +40648,11 @@
       <c r="O326" t="s">
         <v>4617</v>
       </c>
-      <c r="S326">
-        <v>6.0</v>
+      <c r="S326" s="1">
+        <v>6</v>
       </c>
       <c r="T326">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U326" t="s">
         <v>323</v>
@@ -40663,7 +40694,7 @@
         <v>4625</v>
       </c>
     </row>
-    <row r="327" spans="1:46">
+    <row r="327" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>4626</v>
       </c>
@@ -40694,11 +40725,11 @@
       <c r="O327" t="s">
         <v>4630</v>
       </c>
-      <c r="S327">
-        <v>6.0</v>
+      <c r="S327" s="1">
+        <v>6</v>
       </c>
       <c r="T327">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U327" t="s">
         <v>302</v>
@@ -40740,7 +40771,7 @@
         <v>4638</v>
       </c>
     </row>
-    <row r="328" spans="1:46">
+    <row r="328" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4639</v>
       </c>
@@ -40771,11 +40802,11 @@
       <c r="O328" t="s">
         <v>4644</v>
       </c>
-      <c r="S328">
-        <v>6.0</v>
+      <c r="S328" s="1">
+        <v>6</v>
       </c>
       <c r="T328">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U328" t="s">
         <v>4645</v>
@@ -40817,7 +40848,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="329" spans="1:46">
+    <row r="329" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>4655</v>
       </c>
@@ -40848,11 +40879,11 @@
       <c r="O329" t="s">
         <v>4095</v>
       </c>
-      <c r="S329">
-        <v>6.0</v>
+      <c r="S329" s="1">
+        <v>6</v>
       </c>
       <c r="T329">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U329" t="s">
         <v>54</v>
@@ -40894,7 +40925,7 @@
         <v>4666</v>
       </c>
     </row>
-    <row r="330" spans="1:46">
+    <row r="330" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>4667</v>
       </c>
@@ -40925,11 +40956,11 @@
       <c r="O330" t="s">
         <v>4673</v>
       </c>
-      <c r="S330">
-        <v>6.0</v>
+      <c r="S330" s="1">
+        <v>6</v>
       </c>
       <c r="T330">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U330" t="s">
         <v>323</v>
@@ -40971,7 +41002,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="331" spans="1:46">
+    <row r="331" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>4682</v>
       </c>
@@ -41002,11 +41033,11 @@
       <c r="O331" t="s">
         <v>4688</v>
       </c>
-      <c r="S331">
-        <v>6.0</v>
+      <c r="S331" s="1">
+        <v>6</v>
       </c>
       <c r="T331">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U331" t="s">
         <v>1542</v>
@@ -41048,7 +41079,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="332" spans="1:46">
+    <row r="332" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>4697</v>
       </c>
@@ -41079,11 +41110,11 @@
       <c r="O332" t="s">
         <v>4688</v>
       </c>
-      <c r="S332">
-        <v>6.0</v>
+      <c r="S332" s="1">
+        <v>6</v>
       </c>
       <c r="T332">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U332" t="s">
         <v>1017</v>
@@ -41125,7 +41156,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="333" spans="1:46">
+    <row r="333" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>4710</v>
       </c>
@@ -41156,11 +41187,11 @@
       <c r="O333" t="s">
         <v>4715</v>
       </c>
-      <c r="S333">
-        <v>6.0</v>
+      <c r="S333" s="1">
+        <v>6</v>
       </c>
       <c r="T333">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U333" t="s">
         <v>54</v>
@@ -41202,7 +41233,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="334" spans="1:46">
+    <row r="334" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>4724</v>
       </c>
@@ -41233,11 +41264,11 @@
       <c r="O334" t="s">
         <v>4729</v>
       </c>
-      <c r="S334">
-        <v>6.0</v>
+      <c r="S334" s="1">
+        <v>6</v>
       </c>
       <c r="T334">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U334" t="s">
         <v>4730</v>
@@ -41279,7 +41310,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="335" spans="1:46">
+    <row r="335" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>4739</v>
       </c>
@@ -41310,11 +41341,11 @@
       <c r="O335" t="s">
         <v>4729</v>
       </c>
-      <c r="S335">
-        <v>6.0</v>
+      <c r="S335" s="1">
+        <v>6</v>
       </c>
       <c r="T335">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U335" t="s">
         <v>4744</v>
@@ -41356,7 +41387,7 @@
         <v>4753</v>
       </c>
     </row>
-    <row r="336" spans="1:46">
+    <row r="336" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>4754</v>
       </c>
@@ -41387,11 +41418,11 @@
       <c r="O336" t="s">
         <v>4760</v>
       </c>
-      <c r="S336">
-        <v>6.0</v>
+      <c r="S336" s="1">
+        <v>6</v>
       </c>
       <c r="T336">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U336" t="s">
         <v>4761</v>
@@ -41433,7 +41464,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="337" spans="1:46">
+    <row r="337" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>4770</v>
       </c>
@@ -41464,11 +41495,11 @@
       <c r="O337" t="s">
         <v>4032</v>
       </c>
-      <c r="S337">
-        <v>6.0</v>
+      <c r="S337" s="1">
+        <v>6</v>
       </c>
       <c r="T337">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U337" t="s">
         <v>4033</v>
@@ -41510,7 +41541,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="338" spans="1:46">
+    <row r="338" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>4782</v>
       </c>
@@ -41541,11 +41572,11 @@
       <c r="O338" t="s">
         <v>4787</v>
       </c>
-      <c r="S338">
-        <v>6.0</v>
+      <c r="S338" s="1">
+        <v>6</v>
       </c>
       <c r="T338">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U338" t="s">
         <v>1542</v>
@@ -41587,7 +41618,7 @@
         <v>4796</v>
       </c>
     </row>
-    <row r="339" spans="1:46">
+    <row r="339" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>4797</v>
       </c>
@@ -41618,11 +41649,11 @@
       <c r="O339" t="s">
         <v>4802</v>
       </c>
-      <c r="S339">
-        <v>6.0</v>
+      <c r="S339" s="1">
+        <v>6</v>
       </c>
       <c r="T339">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U339" t="s">
         <v>4803</v>
@@ -41664,7 +41695,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="340" spans="1:46">
+    <row r="340" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>4812</v>
       </c>
@@ -41695,11 +41726,11 @@
       <c r="O340" t="s">
         <v>4818</v>
       </c>
-      <c r="S340">
-        <v>6.0</v>
+      <c r="S340" s="1">
+        <v>6</v>
       </c>
       <c r="T340">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U340" t="s">
         <v>54</v>
@@ -41741,7 +41772,7 @@
         <v>4826</v>
       </c>
     </row>
-    <row r="341" spans="1:46">
+    <row r="341" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>4827</v>
       </c>
@@ -41772,11 +41803,11 @@
       <c r="O341" t="s">
         <v>392</v>
       </c>
-      <c r="S341">
-        <v>6.0</v>
+      <c r="S341" s="1">
+        <v>6</v>
       </c>
       <c r="T341">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U341" t="s">
         <v>393</v>
@@ -41818,7 +41849,7 @@
         <v>4838</v>
       </c>
     </row>
-    <row r="342" spans="1:46">
+    <row r="342" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>4839</v>
       </c>
@@ -41849,11 +41880,11 @@
       <c r="O342" t="s">
         <v>4845</v>
       </c>
-      <c r="S342">
-        <v>6.0</v>
+      <c r="S342" s="1">
+        <v>6</v>
       </c>
       <c r="T342">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U342" t="s">
         <v>217</v>
@@ -41895,7 +41926,7 @@
         <v>4853</v>
       </c>
     </row>
-    <row r="343" spans="1:46">
+    <row r="343" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4854</v>
       </c>
@@ -41926,11 +41957,11 @@
       <c r="O343" t="s">
         <v>4466</v>
       </c>
-      <c r="S343">
-        <v>6.0</v>
+      <c r="S343" s="1">
+        <v>6</v>
       </c>
       <c r="T343">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U343" t="s">
         <v>438</v>
@@ -41972,7 +42003,7 @@
         <v>4866</v>
       </c>
     </row>
-    <row r="344" spans="1:46">
+    <row r="344" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>4867</v>
       </c>
@@ -42003,11 +42034,11 @@
       <c r="O344" t="s">
         <v>4873</v>
       </c>
-      <c r="S344">
-        <v>6.0</v>
+      <c r="S344" s="1">
+        <v>6</v>
       </c>
       <c r="T344">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U344" t="s">
         <v>54</v>
@@ -42050,17 +42081,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>